--- a/xlsx/user.xlsx
+++ b/xlsx/user.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/h2k9161gmail.com/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/h2k9161gmail.com/Documents/roomeview/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,17 +45,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test2@eamil.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test3@eamil.com</t>
-  </si>
-  <si>
-    <t>test4@eamil.com</t>
-  </si>
-  <si>
-    <t>test5@eamil.com</t>
+    <t>test2@email.com</t>
+  </si>
+  <si>
+    <t>test3@email.com</t>
+  </si>
+  <si>
+    <t>test4@email.com</t>
+  </si>
+  <si>
+    <t>test5@email.com</t>
   </si>
 </sst>
 </file>
@@ -393,7 +392,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -473,8 +472,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4:A6" r:id="rId3" display="test2@eamil.com"/>
+    <hyperlink ref="A3:A6" r:id="rId2" display="test1@email.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xlsx/user.xlsx
+++ b/xlsx/user.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>id</t>
   </si>
@@ -26,13 +26,18 @@
   </si>
   <si>
     <t>test1@email.com</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2@email.com</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +197,14 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="33">
@@ -491,7 +504,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -618,13 +631,20 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -667,6 +687,7 @@
     <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="42" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -958,9 +979,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
@@ -979,15 +1002,30 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/xlsx/user.xlsx
+++ b/xlsx/user.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="9615" windowHeight="6660"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="11775" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <si>
     <t>id</t>
   </si>
@@ -22,14 +22,547 @@
     <t>email</t>
   </si>
   <si>
+    <t>gomme9396@gmail.com</t>
+  </si>
+  <si>
+    <t>rlsvkf1012@naver.com</t>
+  </si>
+  <si>
+    <t>ansghdtor97@naver.com</t>
+  </si>
+  <si>
+    <t>dignvhkr@gmail.com</t>
+  </si>
+  <si>
+    <t>ilbe777ilbe@gmail.com</t>
+  </si>
+  <si>
+    <t>ksohee1004@naver.com</t>
+  </si>
+  <si>
+    <t>ryuwon1211@gmail.com</t>
+  </si>
+  <si>
+    <t>tesla52@naver.com</t>
+  </si>
+  <si>
+    <t>leemj314@gmail.com</t>
+  </si>
+  <si>
+    <t>huj2333@naver.com</t>
+  </si>
+  <si>
+    <t>mjyjgs@nate.com</t>
+  </si>
+  <si>
+    <t>jay3519@naver.com</t>
+  </si>
+  <si>
+    <t>h2k9161@gmail.com</t>
+  </si>
+  <si>
+    <t>kiss9815@naver.com</t>
+  </si>
+  <si>
+    <t>beeezilyi@gmail.com</t>
+  </si>
+  <si>
+    <t>jeongwill@nate.com</t>
+  </si>
+  <si>
+    <t>sys145@naver.com</t>
+  </si>
+  <si>
+    <t>rlawlstjsop@naver.com</t>
+  </si>
+  <si>
+    <t>fhqjxmlove@nate.com</t>
+  </si>
+  <si>
+    <t>dlswkdb@naver.com</t>
+  </si>
+  <si>
+    <t>shm971209@naver.com</t>
+  </si>
+  <si>
+    <t>jimin9934@naver.com</t>
+  </si>
+  <si>
+    <t>play0127@naver.com</t>
+  </si>
+  <si>
+    <t>sehyunteg@naver.com</t>
+  </si>
+  <si>
+    <t>sangeun0918@naver.com</t>
+  </si>
+  <si>
+    <t>rhacl02@naver.com</t>
+  </si>
+  <si>
+    <t>centerofstone@naver.com</t>
+  </si>
+  <si>
+    <t>jehun0395@naver.com</t>
+  </si>
+  <si>
+    <t>meanwhileswb@naver.com</t>
+  </si>
+  <si>
+    <t>adinis4624@naver.com</t>
+  </si>
+  <si>
+    <t>knew-new@nate.com</t>
+  </si>
+  <si>
+    <t>wndud1589@naver.com</t>
+  </si>
+  <si>
+    <t>2567353@naver.com</t>
+  </si>
+  <si>
+    <t>yunah7539@naver.com</t>
+  </si>
+  <si>
+    <t>ajw950114@naver.com</t>
+  </si>
+  <si>
+    <t>fkdl113@naver.com</t>
+  </si>
+  <si>
+    <t>tkddlf523@naver.com</t>
+  </si>
+  <si>
+    <t>gghhhh@gmail.com</t>
+  </si>
+  <si>
+    <t>taeilkq@naver.com</t>
+  </si>
+  <si>
+    <t>gh_gggg@naver.com</t>
+  </si>
+  <si>
+    <t>weeool@naver.com</t>
+  </si>
+  <si>
+    <t>hc1030@naver.com</t>
+  </si>
+  <si>
+    <t>wusldg@naver.com</t>
+  </si>
+  <si>
+    <t>wnwnrkd@naver.com</t>
+  </si>
+  <si>
+    <t>ask0137@naver.com</t>
+  </si>
+  <si>
+    <t>sgm0345@naver.com</t>
+  </si>
+  <si>
+    <t>ddoki95@naver.com</t>
+  </si>
+  <si>
+    <t>dlgpal951@naver.com</t>
+  </si>
+  <si>
+    <t>soyun593@naver.com</t>
+  </si>
+  <si>
+    <t>kws03074@naver.com</t>
+  </si>
+  <si>
+    <t>min8540055@hanmail.net</t>
+  </si>
+  <si>
+    <t>smallhands5073@gmail.com</t>
+  </si>
+  <si>
+    <t>kayoung921@naver.com</t>
+  </si>
+  <si>
+    <t>ohw5840@naver.com</t>
+  </si>
+  <si>
+    <t>napalquf@naver.com</t>
+  </si>
+  <si>
+    <t>pag3506@naver.com</t>
+  </si>
+  <si>
+    <t>als2wh3@naver.com</t>
+  </si>
+  <si>
+    <t>kjm6781@naver.com</t>
+  </si>
+  <si>
+    <t>ggobugie@naver.com</t>
+  </si>
+  <si>
+    <t>mental92@naver.com</t>
+  </si>
+  <si>
+    <t>lshw2629@naver.com</t>
+  </si>
+  <si>
+    <t>ls0802@naver.com</t>
+  </si>
+  <si>
+    <t>sumin59@naver.com</t>
+  </si>
+  <si>
+    <t>yongbin6233@naver.com</t>
+  </si>
+  <si>
+    <t>ppp4412@naver.com</t>
+  </si>
+  <si>
+    <t>rlawodnjs1478@naver.com</t>
+  </si>
+  <si>
+    <t>kej4114@naver.com</t>
+  </si>
+  <si>
+    <t>hahaimbm@gmail.com</t>
+  </si>
+  <si>
+    <t>nsk0623@naver.com</t>
+  </si>
+  <si>
+    <t>ihj622@daum.net</t>
+  </si>
+  <si>
+    <t>mimiso9@gmail.com</t>
+  </si>
+  <si>
+    <t>quswlsdk9@naver.com</t>
+  </si>
+  <si>
+    <t>bguk@cnu.ac.kr</t>
+  </si>
+  <si>
+    <t>hgs0220@nate.com</t>
+  </si>
+  <si>
+    <t>familysa@naver.com</t>
+  </si>
+  <si>
+    <t>seo2122@hanmail.net</t>
+  </si>
+  <si>
+    <t>8296hs@gmail.com</t>
+  </si>
+  <si>
+    <t>basing@naver.com</t>
+  </si>
+  <si>
+    <t>choisk0206@naver.com</t>
+  </si>
+  <si>
+    <t>psyhera1@naver.com</t>
+  </si>
+  <si>
+    <t>tmdwnd99@naver.com</t>
+  </si>
+  <si>
+    <t>sol0993@gmail.com</t>
+  </si>
+  <si>
+    <t>rhkwkqkd@hanmail.net</t>
+  </si>
+  <si>
+    <t>misun0217@naver.com</t>
+  </si>
+  <si>
+    <t>pmj2750@naver.com</t>
+  </si>
+  <si>
+    <t>cyan330@naver.com</t>
+  </si>
+  <si>
+    <t>kgh3517@naver.com</t>
+  </si>
+  <si>
+    <t>asd@naver.com</t>
+  </si>
+  <si>
+    <t>helen0864@naver.com</t>
+  </si>
+  <si>
+    <t>rptkdehfdl@naver.com</t>
+  </si>
+  <si>
+    <t>qkrwndud940@naver.com</t>
+  </si>
+  <si>
+    <t>lhs10225@naver.con</t>
+  </si>
+  <si>
+    <t>rldls9412@naver.com</t>
+  </si>
+  <si>
+    <t>mink_2426@nate.com</t>
+  </si>
+  <si>
+    <t>usu0506@naver.com</t>
+  </si>
+  <si>
+    <t>dwd_____@naver.com</t>
+  </si>
+  <si>
+    <t>ths3385@naver.com</t>
+  </si>
+  <si>
+    <t>djawls@hanmail.net</t>
+  </si>
+  <si>
+    <t>treme101@naver.com</t>
+  </si>
+  <si>
+    <t>tutan123@naver.com</t>
+  </si>
+  <si>
+    <t>ssum2233@naver.com</t>
+  </si>
+  <si>
+    <t>math_15@naver.com</t>
+  </si>
+  <si>
+    <t>leein3293@naver.com</t>
+  </si>
+  <si>
+    <t>gim0615@naver.com</t>
+  </si>
+  <si>
+    <t>kime2714@naver.com</t>
+  </si>
+  <si>
+    <t>jangnurijang@hanmail.net</t>
+  </si>
+  <si>
+    <t>ska97105@naver.com</t>
+  </si>
+  <si>
+    <t>tls7415@naver.com</t>
+  </si>
+  <si>
+    <t>7dmsdms7@daum.net</t>
+  </si>
+  <si>
+    <t>bell1995@daum.net</t>
+  </si>
+  <si>
+    <t>yja0203@naver.com</t>
+  </si>
+  <si>
+    <t>8840286@naver.com</t>
+  </si>
+  <si>
+    <t>gsm03490@naver.com</t>
+  </si>
+  <si>
+    <t>anstjwjd3564@naver.com</t>
+  </si>
+  <si>
+    <t>gms2234@naver.com</t>
+  </si>
+  <si>
+    <t>joojoo603@naver.com</t>
+  </si>
+  <si>
+    <t>deliverance_@naver.com</t>
+  </si>
+  <si>
+    <t>hoif114@naver.com</t>
+  </si>
+  <si>
+    <t>hbongm2@naver.com</t>
+  </si>
+  <si>
+    <t>apricot176@gmail.com</t>
+  </si>
+  <si>
+    <t>soojin9962@naver.com</t>
+  </si>
+  <si>
+    <t>junk1006@naver.com</t>
+  </si>
+  <si>
+    <t>sunnypcj@hanmail.net</t>
+  </si>
+  <si>
+    <t>tnqls8645@naver.com</t>
+  </si>
+  <si>
+    <t>super7643@naver.com</t>
+  </si>
+  <si>
+    <t>sho8o@naver.com</t>
+  </si>
+  <si>
+    <t>alswl452@nate.com</t>
+  </si>
+  <si>
+    <t>yujin3384@naver.com</t>
+  </si>
+  <si>
+    <t>tjszk20@naver.com</t>
+  </si>
+  <si>
+    <t>mssongn@naver.com</t>
+  </si>
+  <si>
+    <t>tkdals2889@gmail.com</t>
+  </si>
+  <si>
+    <t>hsy1754@hanmail.net</t>
+  </si>
+  <si>
+    <t>duswjd0319@naver.com</t>
+  </si>
+  <si>
+    <t>hangyal326@naver.com</t>
+  </si>
+  <si>
+    <t>wlals054@naver.com</t>
+  </si>
+  <si>
+    <t>xogml3927@naver.com</t>
+  </si>
+  <si>
+    <t>aszx8520@hanmail.net</t>
+  </si>
+  <si>
+    <t>ccc@naver.com</t>
+  </si>
+  <si>
+    <t>yjw3096@naver.com</t>
+  </si>
+  <si>
+    <t>hyun02916@naver.com</t>
+  </si>
+  <si>
+    <t>heeyeon12307@gmail.net</t>
+  </si>
+  <si>
+    <t>sunog12@naver.com</t>
+  </si>
+  <si>
+    <t>landy35@naver.com</t>
+  </si>
+  <si>
+    <t>minkim0427@naver.com</t>
+  </si>
+  <si>
+    <t>joshuak14@hanmail.net</t>
+  </si>
+  <si>
+    <t>betop2015@naver.com</t>
+  </si>
+  <si>
+    <t>gu212323@naver.com</t>
+  </si>
+  <si>
+    <t>hae_0419@naver.com</t>
+  </si>
+  <si>
+    <t>les9959@naver.com</t>
+  </si>
+  <si>
+    <t>ruddhldls@naver.com</t>
+  </si>
+  <si>
+    <t>guslivewave@naver.com</t>
+  </si>
+  <si>
+    <t>rkdms9612@naver.com</t>
+  </si>
+  <si>
+    <t>cycho2454@naver.com</t>
+  </si>
+  <si>
+    <t>curons@naver.com</t>
+  </si>
+  <si>
+    <t>parkzhal@naver.com</t>
+  </si>
+  <si>
+    <t>msh0622@naver.com</t>
+  </si>
+  <si>
+    <t>kyj6423_@naver.com</t>
+  </si>
+  <si>
+    <t>fkvmzktm@naver.com</t>
+  </si>
+  <si>
+    <t>psi9553@naver.com</t>
+  </si>
+  <si>
+    <t>2joyslee@naver.com</t>
+  </si>
+  <si>
+    <t>tlgus0705@naver.com</t>
+  </si>
+  <si>
+    <t>dkdl7289@naver.com</t>
+  </si>
+  <si>
+    <t>gusqls5073@naver.com</t>
+  </si>
+  <si>
+    <t>7jumpstart@gmail.com</t>
+  </si>
+  <si>
+    <t>kimjinsil3@naver.com</t>
+  </si>
+  <si>
+    <t>skfmeldrj12@naver.com</t>
+  </si>
+  <si>
+    <t>dmswls9346@naver.com</t>
+  </si>
+  <si>
+    <t>njy4111@naver.com</t>
+  </si>
+  <si>
+    <t>chlwd2@naver.com</t>
+  </si>
+  <si>
+    <t>sei02026@naver.com</t>
+  </si>
+  <si>
+    <t>heelight@naver.com</t>
+  </si>
+  <si>
+    <t>zanzzoo@naver.com</t>
+  </si>
+  <si>
+    <t>smarthojeong@gmail.com</t>
+  </si>
+  <si>
+    <t>bti6623@nate.com</t>
+  </si>
+  <si>
+    <t>zxcvb933@naver.com</t>
+  </si>
+  <si>
+    <t>qdw2016@naver.com</t>
+  </si>
+  <si>
+    <t>rnjsgmldus1@naver.com</t>
+  </si>
+  <si>
+    <t>uk4420@naver.com</t>
+  </si>
+  <si>
+    <t>usobay@naver.com</t>
+  </si>
+  <si>
+    <t>rkarbf13@naver.com</t>
+  </si>
+  <si>
     <t>confirmation</t>
-  </si>
-  <si>
-    <t>test1@email.com</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>test2@email.com</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -37,7 +570,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,14 +730,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="33">
@@ -504,7 +1029,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -631,20 +1156,13 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -687,7 +1205,6 @@
     <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="42" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -979,10 +1496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F177" sqref="F177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -995,15 +1512,15 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -1013,19 +1530,1973 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="b">
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>86</v>
+      </c>
+      <c r="C86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>87</v>
+      </c>
+      <c r="C87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>88</v>
+      </c>
+      <c r="C88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>93</v>
+      </c>
+      <c r="C93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>94</v>
+      </c>
+      <c r="C94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>95</v>
+      </c>
+      <c r="C95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>96</v>
+      </c>
+      <c r="C96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>97</v>
+      </c>
+      <c r="C97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>98</v>
+      </c>
+      <c r="C98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>99</v>
+      </c>
+      <c r="C99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>102</v>
+      </c>
+      <c r="C102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>103</v>
+      </c>
+      <c r="C103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>105</v>
+      </c>
+      <c r="C105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>106</v>
+      </c>
+      <c r="C106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>109</v>
+      </c>
+      <c r="C109" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>110</v>
+      </c>
+      <c r="C110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>111</v>
+      </c>
+      <c r="C111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>112</v>
+      </c>
+      <c r="C112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>113</v>
+      </c>
+      <c r="C113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>114</v>
+      </c>
+      <c r="C114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>115</v>
+      </c>
+      <c r="C115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>116</v>
+      </c>
+      <c r="C116" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>117</v>
+      </c>
+      <c r="C117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>118</v>
+      </c>
+      <c r="C118" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>119</v>
+      </c>
+      <c r="C119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>120</v>
+      </c>
+      <c r="C120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>121</v>
+      </c>
+      <c r="C121" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>122</v>
+      </c>
+      <c r="C122" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>123</v>
+      </c>
+      <c r="C123" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>124</v>
+      </c>
+      <c r="C124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>125</v>
+      </c>
+      <c r="C125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>127</v>
+      </c>
+      <c r="C127" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>128</v>
+      </c>
+      <c r="C128" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>129</v>
+      </c>
+      <c r="C129" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>130</v>
+      </c>
+      <c r="C130" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>131</v>
+      </c>
+      <c r="C131" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>132</v>
+      </c>
+      <c r="C132" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>133</v>
+      </c>
+      <c r="C133" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>134</v>
+      </c>
+      <c r="C134" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>135</v>
+      </c>
+      <c r="C135" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>136</v>
+      </c>
+      <c r="C136" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>137</v>
+      </c>
+      <c r="C137" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>138</v>
+      </c>
+      <c r="C138" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>139</v>
+      </c>
+      <c r="C139" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>140</v>
+      </c>
+      <c r="C140" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>141</v>
+      </c>
+      <c r="C141" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>142</v>
+      </c>
+      <c r="C142" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>143</v>
+      </c>
+      <c r="C143" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>144</v>
+      </c>
+      <c r="C144" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>145</v>
+      </c>
+      <c r="C145" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>146</v>
+      </c>
+      <c r="C146" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>147</v>
+      </c>
+      <c r="C147" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>148</v>
+      </c>
+      <c r="C148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>149</v>
+      </c>
+      <c r="C149" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>150</v>
+      </c>
+      <c r="C150" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>151</v>
+      </c>
+      <c r="C151" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>152</v>
+      </c>
+      <c r="C152" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>153</v>
+      </c>
+      <c r="C153" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>154</v>
+      </c>
+      <c r="C154" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>155</v>
+      </c>
+      <c r="C155" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>156</v>
+      </c>
+      <c r="C156" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>157</v>
+      </c>
+      <c r="C157" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>158</v>
+      </c>
+      <c r="C158" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>159</v>
+      </c>
+      <c r="C159" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>160</v>
+      </c>
+      <c r="C160" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>161</v>
+      </c>
+      <c r="C161" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>162</v>
+      </c>
+      <c r="C162" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>163</v>
+      </c>
+      <c r="C163" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>164</v>
+      </c>
+      <c r="C164" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>165</v>
+      </c>
+      <c r="C165" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>166</v>
+      </c>
+      <c r="C166" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>167</v>
+      </c>
+      <c r="C167" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>168</v>
+      </c>
+      <c r="C168" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>169</v>
+      </c>
+      <c r="C169" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>170</v>
+      </c>
+      <c r="C170" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>171</v>
+      </c>
+      <c r="C171" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>172</v>
+      </c>
+      <c r="C172" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>173</v>
+      </c>
+      <c r="C173" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>174</v>
+      </c>
+      <c r="C174" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>175</v>
+      </c>
+      <c r="C175" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>176</v>
+      </c>
+      <c r="C176" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>177</v>
+      </c>
+      <c r="C177" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>178</v>
+      </c>
+      <c r="C178" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>179</v>
+      </c>
+      <c r="C179" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>180</v>
+      </c>
+      <c r="C180" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>181</v>
+      </c>
+      <c r="C181" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/xlsx/user.xlsx
+++ b/xlsx/user.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="11775" windowHeight="7560"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="20415" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="219">
   <si>
     <t>id</t>
   </si>
@@ -22,9 +22,15 @@
     <t>email</t>
   </si>
   <si>
+    <t>confirmation</t>
+  </si>
+  <si>
     <t>gomme9396@gmail.com</t>
   </si>
   <si>
+    <t>t</t>
+  </si>
+  <si>
     <t>rlsvkf1012@naver.com</t>
   </si>
   <si>
@@ -562,8 +568,109 @@
     <t>rkarbf13@naver.com</t>
   </si>
   <si>
-    <t>confirmation</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>huko1234@gmail.com</t>
+  </si>
+  <si>
+    <t>kimsungdo123@naver.com</t>
+  </si>
+  <si>
+    <t>wnsdud4406@naver.com</t>
+  </si>
+  <si>
+    <t>idea_hb@naver.com</t>
+  </si>
+  <si>
+    <t>sonyeun96@hanmail.net</t>
+  </si>
+  <si>
+    <t>dbstjq91@gmail.com</t>
+  </si>
+  <si>
+    <t>stdrive@naver.com</t>
+  </si>
+  <si>
+    <t>parkjc1111@naver.com</t>
+  </si>
+  <si>
+    <t>jae6120@naver.com</t>
+  </si>
+  <si>
+    <t>ktthee@naver.com</t>
+  </si>
+  <si>
+    <t>tkddlf323@hanmail.net</t>
+  </si>
+  <si>
+    <t>jg0428.lim@gmail.com</t>
+  </si>
+  <si>
+    <t>hjp9183@naver.com</t>
+  </si>
+  <si>
+    <t>yoona2222@hanmail.net</t>
+  </si>
+  <si>
+    <t>com6640131@naver.com</t>
+  </si>
+  <si>
+    <t>wns5167@naver.com</t>
+  </si>
+  <si>
+    <t>kevin4475@naver.com</t>
+  </si>
+  <si>
+    <t>thswndhkd22@naver.com</t>
+  </si>
+  <si>
+    <t>minho2230@naver.com</t>
+  </si>
+  <si>
+    <t>theking2983@gmail.com</t>
+  </si>
+  <si>
+    <t>cillic@hanmail.net</t>
+  </si>
+  <si>
+    <t>dear0724@naver.com</t>
+  </si>
+  <si>
+    <t>taengoole@naver.com</t>
+  </si>
+  <si>
+    <t>anminyoung77@gmail.com</t>
+  </si>
+  <si>
+    <t>mmjlee314@naver.com</t>
+  </si>
+  <si>
+    <t>2arm21c@naver.com</t>
+  </si>
+  <si>
+    <t>rkdrmsdka@naver.com</t>
+  </si>
+  <si>
+    <t>shiish@naver.com</t>
+  </si>
+  <si>
+    <t>kej4115@naver.com</t>
+  </si>
+  <si>
+    <t>kimmini10@naver.com</t>
+  </si>
+  <si>
+    <t>sb03147@naver.com</t>
+  </si>
+  <si>
+    <t>jun4250@naver.com</t>
+  </si>
+  <si>
+    <t>daeun0707@naver.com</t>
+  </si>
+  <si>
+    <t>jjunpopo@nate.com</t>
+  </si>
+  <si>
+    <t>gambler7712@naver.com</t>
   </si>
 </sst>
 </file>
@@ -1496,11 +1603,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C181"/>
+  <dimension ref="A1:C216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F177" sqref="F177"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
@@ -1512,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>182</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1520,10 +1625,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1531,10 +1636,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1542,10 +1647,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1553,10 +1658,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1564,10 +1669,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1575,10 +1680,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1586,10 +1691,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1597,10 +1702,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1608,10 +1713,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="b">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1619,10 +1724,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="b">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1630,10 +1735,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="b">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1641,10 +1746,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="b">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1652,10 +1757,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="b">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1663,10 +1768,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="b">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1674,10 +1779,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="b">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1685,10 +1790,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="b">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1696,10 +1801,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="b">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1707,10 +1812,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="b">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1718,10 +1823,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="b">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1729,10 +1834,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="b">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1740,10 +1845,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="b">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1751,10 +1856,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" t="b">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1762,10 +1867,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="b">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1773,10 +1878,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="b">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1784,10 +1889,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="b">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1795,10 +1900,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" t="b">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1806,10 +1911,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" t="b">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1817,10 +1922,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" t="b">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1828,10 +1933,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" t="b">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1839,10 +1944,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" t="b">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1850,10 +1955,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" t="b">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1861,10 +1966,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" t="b">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1872,10 +1977,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" t="b">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1883,10 +1988,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" t="b">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1894,10 +1999,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" t="b">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1905,10 +2010,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" t="b">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1916,10 +2021,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" t="b">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1927,10 +2032,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" t="b">
-        <v>1</v>
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1938,10 +2043,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" t="b">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1949,10 +2054,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" t="b">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1960,10 +2065,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" t="b">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1971,10 +2076,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" t="b">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1982,10 +2087,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" t="b">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1993,10 +2098,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" t="b">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2004,10 +2109,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" t="b">
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2015,10 +2120,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" t="b">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2026,10 +2131,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" t="b">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2037,10 +2142,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" t="b">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2048,10 +2153,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" t="b">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2059,10 +2164,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" t="b">
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2070,10 +2175,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52" t="b">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2081,10 +2186,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" t="b">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2092,10 +2197,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" t="b">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2103,10 +2208,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" t="b">
-        <v>1</v>
+        <v>57</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2114,10 +2219,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
-      </c>
-      <c r="C56" t="b">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2125,10 +2230,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" t="b">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2136,10 +2241,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" t="b">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2147,10 +2252,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" t="b">
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2158,10 +2263,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" t="b">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2169,10 +2274,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61" t="b">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2180,10 +2285,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" t="b">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2191,10 +2296,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
-      </c>
-      <c r="C63" t="b">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2202,10 +2307,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
-      </c>
-      <c r="C64" t="b">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2213,10 +2318,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65" t="b">
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2224,10 +2329,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
-      </c>
-      <c r="C66" t="b">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2235,10 +2340,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
-      </c>
-      <c r="C67" t="b">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2246,10 +2351,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
-      </c>
-      <c r="C68" t="b">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2257,10 +2362,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
-      </c>
-      <c r="C69" t="b">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2268,10 +2373,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
-      </c>
-      <c r="C70" t="b">
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2279,10 +2384,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
-      </c>
-      <c r="C71" t="b">
-        <v>1</v>
+        <v>73</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2290,10 +2395,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" t="b">
-        <v>1</v>
+        <v>74</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2301,10 +2406,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
-      </c>
-      <c r="C73" t="b">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2312,10 +2417,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>74</v>
-      </c>
-      <c r="C74" t="b">
-        <v>1</v>
+        <v>76</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2323,10 +2428,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
-      </c>
-      <c r="C75" t="b">
-        <v>1</v>
+        <v>77</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2334,10 +2439,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
-      </c>
-      <c r="C76" t="b">
-        <v>1</v>
+        <v>78</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2345,10 +2450,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
-      </c>
-      <c r="C77" t="b">
-        <v>1</v>
+        <v>79</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2356,10 +2461,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
-      </c>
-      <c r="C78" t="b">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2367,10 +2472,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
-      </c>
-      <c r="C79" t="b">
-        <v>1</v>
+        <v>81</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2378,10 +2483,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C80" t="b">
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2389,10 +2494,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
-      </c>
-      <c r="C81" t="b">
-        <v>1</v>
+        <v>83</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2400,10 +2505,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
-      </c>
-      <c r="C82" t="b">
-        <v>1</v>
+        <v>84</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2411,10 +2516,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
-      </c>
-      <c r="C83" t="b">
-        <v>1</v>
+        <v>85</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2422,10 +2527,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
-      </c>
-      <c r="C84" t="b">
-        <v>1</v>
+        <v>86</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2433,10 +2538,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
-      </c>
-      <c r="C85" t="b">
-        <v>1</v>
+        <v>87</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2444,10 +2549,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
-      </c>
-      <c r="C86" t="b">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2455,10 +2560,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
-      </c>
-      <c r="C87" t="b">
-        <v>1</v>
+        <v>89</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2466,10 +2571,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
-      </c>
-      <c r="C88" t="b">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2477,10 +2582,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
-      </c>
-      <c r="C89" t="b">
-        <v>1</v>
+        <v>91</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2488,10 +2593,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
-      </c>
-      <c r="C90" t="b">
-        <v>1</v>
+        <v>92</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2499,10 +2604,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
-      </c>
-      <c r="C91" t="b">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2510,10 +2615,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
-      </c>
-      <c r="C92" t="b">
-        <v>1</v>
+        <v>94</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2521,10 +2626,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
-      </c>
-      <c r="C93" t="b">
-        <v>1</v>
+        <v>95</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2532,10 +2637,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
-      </c>
-      <c r="C94" t="b">
-        <v>1</v>
+        <v>96</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2543,10 +2648,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
-      </c>
-      <c r="C95" t="b">
-        <v>1</v>
+        <v>97</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2554,10 +2659,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
-      </c>
-      <c r="C96" t="b">
-        <v>1</v>
+        <v>98</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2565,10 +2670,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
-      </c>
-      <c r="C97" t="b">
-        <v>1</v>
+        <v>99</v>
+      </c>
+      <c r="C97" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2576,10 +2681,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
-      </c>
-      <c r="C98" t="b">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2587,10 +2692,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
-      </c>
-      <c r="C99" t="b">
-        <v>1</v>
+        <v>101</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2598,10 +2703,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
-      </c>
-      <c r="C100" t="b">
-        <v>1</v>
+        <v>102</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2609,10 +2714,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
-      </c>
-      <c r="C101" t="b">
-        <v>1</v>
+        <v>103</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2620,10 +2725,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
-      </c>
-      <c r="C102" t="b">
-        <v>1</v>
+        <v>104</v>
+      </c>
+      <c r="C102" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2631,10 +2736,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
-      </c>
-      <c r="C103" t="b">
-        <v>1</v>
+        <v>105</v>
+      </c>
+      <c r="C103" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2642,10 +2747,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
-      </c>
-      <c r="C104" t="b">
-        <v>1</v>
+        <v>106</v>
+      </c>
+      <c r="C104" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2653,10 +2758,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
-      </c>
-      <c r="C105" t="b">
-        <v>1</v>
+        <v>107</v>
+      </c>
+      <c r="C105" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2664,10 +2769,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
-      </c>
-      <c r="C106" t="b">
-        <v>1</v>
+        <v>108</v>
+      </c>
+      <c r="C106" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2675,10 +2780,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
-      </c>
-      <c r="C107" t="b">
-        <v>1</v>
+        <v>109</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2686,10 +2791,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>108</v>
-      </c>
-      <c r="C108" t="b">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="C108" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2697,10 +2802,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
-      </c>
-      <c r="C109" t="b">
-        <v>1</v>
+        <v>111</v>
+      </c>
+      <c r="C109" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2708,10 +2813,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
-      </c>
-      <c r="C110" t="b">
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="C110" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2719,10 +2824,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
-      </c>
-      <c r="C111" t="b">
-        <v>1</v>
+        <v>113</v>
+      </c>
+      <c r="C111" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2730,10 +2835,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>112</v>
-      </c>
-      <c r="C112" t="b">
-        <v>1</v>
+        <v>114</v>
+      </c>
+      <c r="C112" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2741,10 +2846,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
-      </c>
-      <c r="C113" t="b">
-        <v>1</v>
+        <v>115</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2752,10 +2857,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>114</v>
-      </c>
-      <c r="C114" t="b">
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="C114" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2763,10 +2868,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>115</v>
-      </c>
-      <c r="C115" t="b">
-        <v>1</v>
+        <v>117</v>
+      </c>
+      <c r="C115" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2774,10 +2879,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>116</v>
-      </c>
-      <c r="C116" t="b">
-        <v>1</v>
+        <v>118</v>
+      </c>
+      <c r="C116" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2785,10 +2890,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
-      </c>
-      <c r="C117" t="b">
-        <v>1</v>
+        <v>119</v>
+      </c>
+      <c r="C117" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2796,10 +2901,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>118</v>
-      </c>
-      <c r="C118" t="b">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="C118" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2807,10 +2912,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>119</v>
-      </c>
-      <c r="C119" t="b">
-        <v>1</v>
+        <v>121</v>
+      </c>
+      <c r="C119" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2818,10 +2923,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>120</v>
-      </c>
-      <c r="C120" t="b">
-        <v>1</v>
+        <v>122</v>
+      </c>
+      <c r="C120" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2829,10 +2934,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>121</v>
-      </c>
-      <c r="C121" t="b">
-        <v>1</v>
+        <v>123</v>
+      </c>
+      <c r="C121" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2840,10 +2945,10 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>122</v>
-      </c>
-      <c r="C122" t="b">
-        <v>1</v>
+        <v>124</v>
+      </c>
+      <c r="C122" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2851,10 +2956,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
-      </c>
-      <c r="C123" t="b">
-        <v>1</v>
+        <v>125</v>
+      </c>
+      <c r="C123" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2862,10 +2967,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>124</v>
-      </c>
-      <c r="C124" t="b">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="C124" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2873,10 +2978,10 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>125</v>
-      </c>
-      <c r="C125" t="b">
-        <v>1</v>
+        <v>127</v>
+      </c>
+      <c r="C125" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2884,10 +2989,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>126</v>
-      </c>
-      <c r="C126" t="b">
-        <v>1</v>
+        <v>128</v>
+      </c>
+      <c r="C126" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2895,10 +3000,10 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>127</v>
-      </c>
-      <c r="C127" t="b">
-        <v>1</v>
+        <v>129</v>
+      </c>
+      <c r="C127" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2906,10 +3011,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>128</v>
-      </c>
-      <c r="C128" t="b">
-        <v>1</v>
+        <v>130</v>
+      </c>
+      <c r="C128" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2917,10 +3022,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>129</v>
-      </c>
-      <c r="C129" t="b">
-        <v>1</v>
+        <v>131</v>
+      </c>
+      <c r="C129" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2928,10 +3033,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>130</v>
-      </c>
-      <c r="C130" t="b">
-        <v>1</v>
+        <v>132</v>
+      </c>
+      <c r="C130" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2939,10 +3044,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>131</v>
-      </c>
-      <c r="C131" t="b">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="C131" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2950,10 +3055,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>132</v>
-      </c>
-      <c r="C132" t="b">
-        <v>1</v>
+        <v>134</v>
+      </c>
+      <c r="C132" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2961,10 +3066,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>133</v>
-      </c>
-      <c r="C133" t="b">
-        <v>1</v>
+        <v>135</v>
+      </c>
+      <c r="C133" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2972,10 +3077,10 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>134</v>
-      </c>
-      <c r="C134" t="b">
-        <v>1</v>
+        <v>136</v>
+      </c>
+      <c r="C134" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2983,10 +3088,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>135</v>
-      </c>
-      <c r="C135" t="b">
-        <v>1</v>
+        <v>137</v>
+      </c>
+      <c r="C135" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2994,10 +3099,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>136</v>
-      </c>
-      <c r="C136" t="b">
-        <v>1</v>
+        <v>138</v>
+      </c>
+      <c r="C136" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3005,10 +3110,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>137</v>
-      </c>
-      <c r="C137" t="b">
-        <v>1</v>
+        <v>139</v>
+      </c>
+      <c r="C137" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3016,10 +3121,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>138</v>
-      </c>
-      <c r="C138" t="b">
-        <v>1</v>
+        <v>140</v>
+      </c>
+      <c r="C138" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3027,10 +3132,10 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>139</v>
-      </c>
-      <c r="C139" t="b">
-        <v>1</v>
+        <v>141</v>
+      </c>
+      <c r="C139" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3038,10 +3143,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>140</v>
-      </c>
-      <c r="C140" t="b">
-        <v>1</v>
+        <v>142</v>
+      </c>
+      <c r="C140" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3049,10 +3154,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>141</v>
-      </c>
-      <c r="C141" t="b">
-        <v>1</v>
+        <v>143</v>
+      </c>
+      <c r="C141" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3060,10 +3165,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>142</v>
-      </c>
-      <c r="C142" t="b">
-        <v>1</v>
+        <v>144</v>
+      </c>
+      <c r="C142" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3071,10 +3176,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>143</v>
-      </c>
-      <c r="C143" t="b">
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="C143" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3082,10 +3187,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>144</v>
-      </c>
-      <c r="C144" t="b">
-        <v>1</v>
+        <v>146</v>
+      </c>
+      <c r="C144" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3093,10 +3198,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>145</v>
-      </c>
-      <c r="C145" t="b">
-        <v>1</v>
+        <v>147</v>
+      </c>
+      <c r="C145" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3104,10 +3209,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>146</v>
-      </c>
-      <c r="C146" t="b">
-        <v>1</v>
+        <v>148</v>
+      </c>
+      <c r="C146" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3115,10 +3220,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>147</v>
-      </c>
-      <c r="C147" t="b">
-        <v>1</v>
+        <v>149</v>
+      </c>
+      <c r="C147" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3126,10 +3231,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>148</v>
-      </c>
-      <c r="C148" t="b">
-        <v>1</v>
+        <v>150</v>
+      </c>
+      <c r="C148" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3137,10 +3242,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>149</v>
-      </c>
-      <c r="C149" t="b">
-        <v>1</v>
+        <v>151</v>
+      </c>
+      <c r="C149" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3148,10 +3253,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>150</v>
-      </c>
-      <c r="C150" t="b">
-        <v>1</v>
+        <v>152</v>
+      </c>
+      <c r="C150" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3159,10 +3264,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>151</v>
-      </c>
-      <c r="C151" t="b">
-        <v>1</v>
+        <v>153</v>
+      </c>
+      <c r="C151" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3170,10 +3275,10 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>152</v>
-      </c>
-      <c r="C152" t="b">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="C152" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3181,10 +3286,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>153</v>
-      </c>
-      <c r="C153" t="b">
-        <v>1</v>
+        <v>155</v>
+      </c>
+      <c r="C153" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3192,10 +3297,10 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>154</v>
-      </c>
-      <c r="C154" t="b">
-        <v>1</v>
+        <v>156</v>
+      </c>
+      <c r="C154" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3203,10 +3308,10 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>155</v>
-      </c>
-      <c r="C155" t="b">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="C155" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3214,10 +3319,10 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>156</v>
-      </c>
-      <c r="C156" t="b">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C156" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3225,10 +3330,10 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>157</v>
-      </c>
-      <c r="C157" t="b">
-        <v>1</v>
+        <v>159</v>
+      </c>
+      <c r="C157" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3236,10 +3341,10 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>158</v>
-      </c>
-      <c r="C158" t="b">
-        <v>1</v>
+        <v>160</v>
+      </c>
+      <c r="C158" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3247,10 +3352,10 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>159</v>
-      </c>
-      <c r="C159" t="b">
-        <v>1</v>
+        <v>161</v>
+      </c>
+      <c r="C159" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3258,10 +3363,10 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>160</v>
-      </c>
-      <c r="C160" t="b">
-        <v>1</v>
+        <v>162</v>
+      </c>
+      <c r="C160" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3269,10 +3374,10 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>161</v>
-      </c>
-      <c r="C161" t="b">
-        <v>1</v>
+        <v>163</v>
+      </c>
+      <c r="C161" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3280,10 +3385,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>162</v>
-      </c>
-      <c r="C162" t="b">
-        <v>1</v>
+        <v>164</v>
+      </c>
+      <c r="C162" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3291,10 +3396,10 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>163</v>
-      </c>
-      <c r="C163" t="b">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="C163" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3302,10 +3407,10 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>164</v>
-      </c>
-      <c r="C164" t="b">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="C164" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3313,10 +3418,10 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>165</v>
-      </c>
-      <c r="C165" t="b">
-        <v>1</v>
+        <v>167</v>
+      </c>
+      <c r="C165" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3324,10 +3429,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>166</v>
-      </c>
-      <c r="C166" t="b">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="C166" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3335,10 +3440,10 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>167</v>
-      </c>
-      <c r="C167" t="b">
-        <v>1</v>
+        <v>169</v>
+      </c>
+      <c r="C167" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3346,10 +3451,10 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>168</v>
-      </c>
-      <c r="C168" t="b">
-        <v>1</v>
+        <v>170</v>
+      </c>
+      <c r="C168" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3357,10 +3462,10 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>169</v>
-      </c>
-      <c r="C169" t="b">
-        <v>1</v>
+        <v>171</v>
+      </c>
+      <c r="C169" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3368,10 +3473,10 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>170</v>
-      </c>
-      <c r="C170" t="b">
-        <v>1</v>
+        <v>172</v>
+      </c>
+      <c r="C170" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3379,10 +3484,10 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>171</v>
-      </c>
-      <c r="C171" t="b">
-        <v>1</v>
+        <v>173</v>
+      </c>
+      <c r="C171" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3390,10 +3495,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>172</v>
-      </c>
-      <c r="C172" t="b">
-        <v>1</v>
+        <v>174</v>
+      </c>
+      <c r="C172" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3401,10 +3506,10 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>173</v>
-      </c>
-      <c r="C173" t="b">
-        <v>1</v>
+        <v>175</v>
+      </c>
+      <c r="C173" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3412,10 +3517,10 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>174</v>
-      </c>
-      <c r="C174" t="b">
-        <v>1</v>
+        <v>176</v>
+      </c>
+      <c r="C174" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3423,10 +3528,10 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>175</v>
-      </c>
-      <c r="C175" t="b">
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="C175" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3434,10 +3539,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>176</v>
-      </c>
-      <c r="C176" t="b">
-        <v>1</v>
+        <v>178</v>
+      </c>
+      <c r="C176" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3445,10 +3550,10 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>177</v>
-      </c>
-      <c r="C177" t="b">
-        <v>1</v>
+        <v>179</v>
+      </c>
+      <c r="C177" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3456,10 +3561,10 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>178</v>
-      </c>
-      <c r="C178" t="b">
-        <v>1</v>
+        <v>180</v>
+      </c>
+      <c r="C178" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3467,10 +3572,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>179</v>
-      </c>
-      <c r="C179" t="b">
-        <v>1</v>
+        <v>181</v>
+      </c>
+      <c r="C179" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3478,10 +3583,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>180</v>
-      </c>
-      <c r="C180" t="b">
-        <v>1</v>
+        <v>182</v>
+      </c>
+      <c r="C180" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3489,9 +3594,394 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
+        <v>183</v>
+      </c>
+      <c r="C181" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182">
         <v>181</v>
       </c>
-      <c r="C181" t="b">
+      <c r="B182" t="s">
+        <v>184</v>
+      </c>
+      <c r="C182" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>185</v>
+      </c>
+      <c r="C183" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>186</v>
+      </c>
+      <c r="C184" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>187</v>
+      </c>
+      <c r="C185" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>188</v>
+      </c>
+      <c r="C186" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>189</v>
+      </c>
+      <c r="C187" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>190</v>
+      </c>
+      <c r="C188" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>191</v>
+      </c>
+      <c r="C189" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>192</v>
+      </c>
+      <c r="C190" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>193</v>
+      </c>
+      <c r="C191" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>194</v>
+      </c>
+      <c r="C192" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>195</v>
+      </c>
+      <c r="C193" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>196</v>
+      </c>
+      <c r="C194" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>197</v>
+      </c>
+      <c r="C195" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>198</v>
+      </c>
+      <c r="C196" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>199</v>
+      </c>
+      <c r="C197" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>200</v>
+      </c>
+      <c r="C198" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>201</v>
+      </c>
+      <c r="C199" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>202</v>
+      </c>
+      <c r="C200" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>203</v>
+      </c>
+      <c r="C201" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>204</v>
+      </c>
+      <c r="C202" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>205</v>
+      </c>
+      <c r="C203" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>206</v>
+      </c>
+      <c r="C204" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>207</v>
+      </c>
+      <c r="C205" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>208</v>
+      </c>
+      <c r="C206" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>209</v>
+      </c>
+      <c r="C207" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>210</v>
+      </c>
+      <c r="C208" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>211</v>
+      </c>
+      <c r="C209" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>212</v>
+      </c>
+      <c r="C210" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>213</v>
+      </c>
+      <c r="C211" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>214</v>
+      </c>
+      <c r="C212" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>215</v>
+      </c>
+      <c r="C213" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>216</v>
+      </c>
+      <c r="C214" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>217</v>
+      </c>
+      <c r="C215" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>218</v>
+      </c>
+      <c r="C216" t="b">
         <v>1</v>
       </c>
     </row>

--- a/xlsx/user.xlsx
+++ b/xlsx/user.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="20415" windowHeight="8460"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="12855" windowHeight="7335"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="564">
   <si>
     <t>id</t>
   </si>
@@ -25,6 +25,12 @@
     <t>confirmation</t>
   </si>
   <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>confirmation_password</t>
+  </si>
+  <si>
     <t>gomme9396@gmail.com</t>
   </si>
   <si>
@@ -43,33 +49,87 @@
     <t>ilbe777ilbe@gmail.com</t>
   </si>
   <si>
+    <t>ilbe779ilbe@gmail.com</t>
+  </si>
+  <si>
+    <t>ilbe780ilbe@gmail.com</t>
+  </si>
+  <si>
     <t>ksohee1004@naver.com</t>
   </si>
   <si>
+    <t>ksohee1006@naver.com</t>
+  </si>
+  <si>
+    <t>ksohee1007@naver.com</t>
+  </si>
+  <si>
     <t>ryuwon1211@gmail.com</t>
   </si>
   <si>
+    <t>ryuwon1213@gmail.com</t>
+  </si>
+  <si>
+    <t>ryuwon1214@gmail.com</t>
+  </si>
+  <si>
     <t>tesla52@naver.com</t>
   </si>
   <si>
+    <t>tesla54@naver.com</t>
+  </si>
+  <si>
+    <t>tesla55@naver.com</t>
+  </si>
+  <si>
     <t>leemj314@gmail.com</t>
   </si>
   <si>
+    <t>leemj316@gmail.com</t>
+  </si>
+  <si>
+    <t>leemj317@gmail.com</t>
+  </si>
+  <si>
     <t>huj2333@naver.com</t>
   </si>
   <si>
+    <t>huj2335@naver.com</t>
+  </si>
+  <si>
+    <t>huj2336@naver.com</t>
+  </si>
+  <si>
     <t>mjyjgs@nate.com</t>
   </si>
   <si>
     <t>jay3519@naver.com</t>
   </si>
   <si>
+    <t>jay3521@naver.com</t>
+  </si>
+  <si>
+    <t>jay3522@naver.com</t>
+  </si>
+  <si>
     <t>h2k9161@gmail.com</t>
   </si>
   <si>
+    <t>h2k9163@gmail.com</t>
+  </si>
+  <si>
+    <t>h2k9164@gmail.com</t>
+  </si>
+  <si>
     <t>kiss9815@naver.com</t>
   </si>
   <si>
+    <t>kiss9817@naver.com</t>
+  </si>
+  <si>
+    <t>kiss9818@naver.com</t>
+  </si>
+  <si>
     <t>beeezilyi@gmail.com</t>
   </si>
   <si>
@@ -79,6 +139,12 @@
     <t>sys145@naver.com</t>
   </si>
   <si>
+    <t>sys147@naver.com</t>
+  </si>
+  <si>
+    <t>sys148@naver.com</t>
+  </si>
+  <si>
     <t>rlawlstjsop@naver.com</t>
   </si>
   <si>
@@ -91,54 +157,132 @@
     <t>shm971209@naver.com</t>
   </si>
   <si>
+    <t>shm971211@naver.com</t>
+  </si>
+  <si>
+    <t>shm971212@naver.com</t>
+  </si>
+  <si>
     <t>jimin9934@naver.com</t>
   </si>
   <si>
+    <t>jimin9936@naver.com</t>
+  </si>
+  <si>
+    <t>jimin9937@naver.com</t>
+  </si>
+  <si>
     <t>play0127@naver.com</t>
   </si>
   <si>
+    <t>play0129@naver.com</t>
+  </si>
+  <si>
+    <t>play0130@naver.com</t>
+  </si>
+  <si>
     <t>sehyunteg@naver.com</t>
   </si>
   <si>
     <t>sangeun0918@naver.com</t>
   </si>
   <si>
+    <t>sangeun0920@naver.com</t>
+  </si>
+  <si>
+    <t>sangeun0921@naver.com</t>
+  </si>
+  <si>
     <t>rhacl02@naver.com</t>
   </si>
   <si>
+    <t>rhacl04@naver.com</t>
+  </si>
+  <si>
+    <t>rhacl05@naver.com</t>
+  </si>
+  <si>
     <t>centerofstone@naver.com</t>
   </si>
   <si>
     <t>jehun0395@naver.com</t>
   </si>
   <si>
+    <t>jehun0397@naver.com</t>
+  </si>
+  <si>
+    <t>jehun0398@naver.com</t>
+  </si>
+  <si>
     <t>meanwhileswb@naver.com</t>
   </si>
   <si>
     <t>adinis4624@naver.com</t>
   </si>
   <si>
+    <t>adinis4626@naver.com</t>
+  </si>
+  <si>
+    <t>adinis4627@naver.com</t>
+  </si>
+  <si>
     <t>knew-new@nate.com</t>
   </si>
   <si>
     <t>wndud1589@naver.com</t>
   </si>
   <si>
+    <t>wndud1591@naver.com</t>
+  </si>
+  <si>
+    <t>wndud1592@naver.com</t>
+  </si>
+  <si>
     <t>2567353@naver.com</t>
   </si>
   <si>
+    <t>2567355@naver.com</t>
+  </si>
+  <si>
+    <t>2567356@naver.com</t>
+  </si>
+  <si>
     <t>yunah7539@naver.com</t>
   </si>
   <si>
+    <t>yunah7541@naver.com</t>
+  </si>
+  <si>
+    <t>yunah7542@naver.com</t>
+  </si>
+  <si>
     <t>ajw950114@naver.com</t>
   </si>
   <si>
+    <t>ajw950116@naver.com</t>
+  </si>
+  <si>
+    <t>ajw950117@naver.com</t>
+  </si>
+  <si>
     <t>fkdl113@naver.com</t>
   </si>
   <si>
+    <t>fkdl115@naver.com</t>
+  </si>
+  <si>
+    <t>fkdl116@naver.com</t>
+  </si>
+  <si>
     <t>tkddlf523@naver.com</t>
   </si>
   <si>
+    <t>tkddlf525@naver.com</t>
+  </si>
+  <si>
+    <t>tkddlf526@naver.com</t>
+  </si>
+  <si>
     <t>gghhhh@gmail.com</t>
   </si>
   <si>
@@ -154,6 +298,12 @@
     <t>hc1030@naver.com</t>
   </si>
   <si>
+    <t>hc1032@naver.com</t>
+  </si>
+  <si>
+    <t>hc1033@naver.com</t>
+  </si>
+  <si>
     <t>wusldg@naver.com</t>
   </si>
   <si>
@@ -163,204 +313,534 @@
     <t>ask0137@naver.com</t>
   </si>
   <si>
+    <t>ask0139@naver.com</t>
+  </si>
+  <si>
+    <t>ask0140@naver.com</t>
+  </si>
+  <si>
     <t>sgm0345@naver.com</t>
   </si>
   <si>
+    <t>sgm0347@naver.com</t>
+  </si>
+  <si>
+    <t>sgm0348@naver.com</t>
+  </si>
+  <si>
     <t>ddoki95@naver.com</t>
   </si>
   <si>
+    <t>ddoki97@naver.com</t>
+  </si>
+  <si>
+    <t>ddoki98@naver.com</t>
+  </si>
+  <si>
     <t>dlgpal951@naver.com</t>
   </si>
   <si>
+    <t>dlgpal953@naver.com</t>
+  </si>
+  <si>
+    <t>dlgpal954@naver.com</t>
+  </si>
+  <si>
     <t>soyun593@naver.com</t>
   </si>
   <si>
+    <t>soyun595@naver.com</t>
+  </si>
+  <si>
+    <t>soyun596@naver.com</t>
+  </si>
+  <si>
     <t>kws03074@naver.com</t>
   </si>
   <si>
+    <t>kws03076@naver.com</t>
+  </si>
+  <si>
+    <t>kws03077@naver.com</t>
+  </si>
+  <si>
     <t>min8540055@hanmail.net</t>
   </si>
   <si>
+    <t>min8540057@hanmail.net</t>
+  </si>
+  <si>
+    <t>min8540058@hanmail.net</t>
+  </si>
+  <si>
     <t>smallhands5073@gmail.com</t>
   </si>
   <si>
+    <t>smallhands5075@gmail.com</t>
+  </si>
+  <si>
+    <t>smallhands5076@gmail.com</t>
+  </si>
+  <si>
     <t>kayoung921@naver.com</t>
   </si>
   <si>
+    <t>kayoung923@naver.com</t>
+  </si>
+  <si>
+    <t>kayoung924@naver.com</t>
+  </si>
+  <si>
     <t>ohw5840@naver.com</t>
   </si>
   <si>
+    <t>ohw5842@naver.com</t>
+  </si>
+  <si>
+    <t>ohw5843@naver.com</t>
+  </si>
+  <si>
     <t>napalquf@naver.com</t>
   </si>
   <si>
     <t>pag3506@naver.com</t>
   </si>
   <si>
+    <t>pag3508@naver.com</t>
+  </si>
+  <si>
+    <t>pag3509@naver.com</t>
+  </si>
+  <si>
     <t>als2wh3@naver.com</t>
   </si>
   <si>
+    <t>als2wh5@naver.com</t>
+  </si>
+  <si>
+    <t>als2wh6@naver.com</t>
+  </si>
+  <si>
     <t>kjm6781@naver.com</t>
   </si>
   <si>
+    <t>kjm6783@naver.com</t>
+  </si>
+  <si>
+    <t>kjm6784@naver.com</t>
+  </si>
+  <si>
     <t>ggobugie@naver.com</t>
   </si>
   <si>
     <t>mental92@naver.com</t>
   </si>
   <si>
+    <t>mental94@naver.com</t>
+  </si>
+  <si>
+    <t>mental95@naver.com</t>
+  </si>
+  <si>
     <t>lshw2629@naver.com</t>
   </si>
   <si>
+    <t>lshw2631@naver.com</t>
+  </si>
+  <si>
+    <t>lshw2632@naver.com</t>
+  </si>
+  <si>
     <t>ls0802@naver.com</t>
   </si>
   <si>
+    <t>ls0804@naver.com</t>
+  </si>
+  <si>
+    <t>ls0805@naver.com</t>
+  </si>
+  <si>
     <t>sumin59@naver.com</t>
   </si>
   <si>
+    <t>sumin61@naver.com</t>
+  </si>
+  <si>
+    <t>sumin62@naver.com</t>
+  </si>
+  <si>
     <t>yongbin6233@naver.com</t>
   </si>
   <si>
+    <t>yongbin6235@naver.com</t>
+  </si>
+  <si>
+    <t>yongbin6236@naver.com</t>
+  </si>
+  <si>
     <t>ppp4412@naver.com</t>
   </si>
   <si>
+    <t>ppp4414@naver.com</t>
+  </si>
+  <si>
+    <t>ppp4415@naver.com</t>
+  </si>
+  <si>
     <t>rlawodnjs1478@naver.com</t>
   </si>
   <si>
+    <t>rlawodnjs1480@naver.com</t>
+  </si>
+  <si>
+    <t>rlawodnjs1481@naver.com</t>
+  </si>
+  <si>
     <t>kej4114@naver.com</t>
   </si>
   <si>
+    <t>kej4116@naver.com</t>
+  </si>
+  <si>
+    <t>kej4117@naver.com</t>
+  </si>
+  <si>
     <t>hahaimbm@gmail.com</t>
   </si>
   <si>
     <t>nsk0623@naver.com</t>
   </si>
   <si>
+    <t>nsk0625@naver.com</t>
+  </si>
+  <si>
+    <t>nsk0626@naver.com</t>
+  </si>
+  <si>
     <t>ihj622@daum.net</t>
   </si>
   <si>
+    <t>ihj624@daum.net</t>
+  </si>
+  <si>
+    <t>ihj625@daum.net</t>
+  </si>
+  <si>
     <t>mimiso9@gmail.com</t>
   </si>
   <si>
+    <t>mimiso11@gmail.com</t>
+  </si>
+  <si>
+    <t>mimiso12@gmail.com</t>
+  </si>
+  <si>
     <t>quswlsdk9@naver.com</t>
   </si>
   <si>
+    <t>quswlsdk11@naver.com</t>
+  </si>
+  <si>
+    <t>quswlsdk12@naver.com</t>
+  </si>
+  <si>
     <t>bguk@cnu.ac.kr</t>
   </si>
   <si>
     <t>hgs0220@nate.com</t>
   </si>
   <si>
+    <t>hgs0222@nate.com</t>
+  </si>
+  <si>
+    <t>hgs0223@nate.com</t>
+  </si>
+  <si>
     <t>familysa@naver.com</t>
   </si>
   <si>
     <t>seo2122@hanmail.net</t>
   </si>
   <si>
+    <t>seo2124@hanmail.net</t>
+  </si>
+  <si>
+    <t>seo2125@hanmail.net</t>
+  </si>
+  <si>
     <t>8296hs@gmail.com</t>
   </si>
   <si>
+    <t>8298hs@gmail.com</t>
+  </si>
+  <si>
+    <t>8299hs@gmail.com</t>
+  </si>
+  <si>
     <t>basing@naver.com</t>
   </si>
   <si>
     <t>choisk0206@naver.com</t>
   </si>
   <si>
+    <t>choisk0208@naver.com</t>
+  </si>
+  <si>
+    <t>choisk0209@naver.com</t>
+  </si>
+  <si>
     <t>psyhera1@naver.com</t>
   </si>
   <si>
+    <t>psyhera3@naver.com</t>
+  </si>
+  <si>
+    <t>psyhera4@naver.com</t>
+  </si>
+  <si>
     <t>tmdwnd99@naver.com</t>
   </si>
   <si>
+    <t>tmdwnd101@naver.com</t>
+  </si>
+  <si>
+    <t>tmdwnd102@naver.com</t>
+  </si>
+  <si>
     <t>sol0993@gmail.com</t>
   </si>
   <si>
+    <t>sol0995@gmail.com</t>
+  </si>
+  <si>
+    <t>sol0996@gmail.com</t>
+  </si>
+  <si>
     <t>rhkwkqkd@hanmail.net</t>
   </si>
   <si>
     <t>misun0217@naver.com</t>
   </si>
   <si>
+    <t>misun0219@naver.com</t>
+  </si>
+  <si>
+    <t>misun0220@naver.com</t>
+  </si>
+  <si>
     <t>pmj2750@naver.com</t>
   </si>
   <si>
+    <t>pmj2752@naver.com</t>
+  </si>
+  <si>
+    <t>pmj2753@naver.com</t>
+  </si>
+  <si>
     <t>cyan330@naver.com</t>
   </si>
   <si>
+    <t>cyan332@naver.com</t>
+  </si>
+  <si>
+    <t>cyan333@naver.com</t>
+  </si>
+  <si>
     <t>kgh3517@naver.com</t>
   </si>
   <si>
+    <t>kgh3519@naver.com</t>
+  </si>
+  <si>
+    <t>kgh3520@naver.com</t>
+  </si>
+  <si>
     <t>asd@naver.com</t>
   </si>
   <si>
     <t>helen0864@naver.com</t>
   </si>
   <si>
+    <t>helen0866@naver.com</t>
+  </si>
+  <si>
+    <t>helen0867@naver.com</t>
+  </si>
+  <si>
     <t>rptkdehfdl@naver.com</t>
   </si>
   <si>
     <t>qkrwndud940@naver.com</t>
   </si>
   <si>
+    <t>qkrwndud942@naver.com</t>
+  </si>
+  <si>
+    <t>qkrwndud943@naver.com</t>
+  </si>
+  <si>
     <t>lhs10225@naver.con</t>
   </si>
   <si>
+    <t>lhs10227@naver.con</t>
+  </si>
+  <si>
+    <t>lhs10228@naver.con</t>
+  </si>
+  <si>
     <t>rldls9412@naver.com</t>
   </si>
   <si>
+    <t>rldls9414@naver.com</t>
+  </si>
+  <si>
+    <t>rldls9415@naver.com</t>
+  </si>
+  <si>
     <t>mink_2426@nate.com</t>
   </si>
   <si>
+    <t>mink_2428@nate.com</t>
+  </si>
+  <si>
+    <t>mink_2429@nate.com</t>
+  </si>
+  <si>
     <t>usu0506@naver.com</t>
   </si>
   <si>
+    <t>usu0508@naver.com</t>
+  </si>
+  <si>
+    <t>usu0509@naver.com</t>
+  </si>
+  <si>
     <t>dwd_____@naver.com</t>
   </si>
   <si>
     <t>ths3385@naver.com</t>
   </si>
   <si>
+    <t>ths3387@naver.com</t>
+  </si>
+  <si>
+    <t>ths3388@naver.com</t>
+  </si>
+  <si>
     <t>djawls@hanmail.net</t>
   </si>
   <si>
     <t>treme101@naver.com</t>
   </si>
   <si>
+    <t>treme103@naver.com</t>
+  </si>
+  <si>
+    <t>treme104@naver.com</t>
+  </si>
+  <si>
     <t>tutan123@naver.com</t>
   </si>
   <si>
+    <t>tutan125@naver.com</t>
+  </si>
+  <si>
+    <t>tutan126@naver.com</t>
+  </si>
+  <si>
     <t>ssum2233@naver.com</t>
   </si>
   <si>
+    <t>ssum2235@naver.com</t>
+  </si>
+  <si>
+    <t>ssum2236@naver.com</t>
+  </si>
+  <si>
     <t>math_15@naver.com</t>
   </si>
   <si>
+    <t>math_17@naver.com</t>
+  </si>
+  <si>
+    <t>math_18@naver.com</t>
+  </si>
+  <si>
     <t>leein3293@naver.com</t>
   </si>
   <si>
+    <t>leein3295@naver.com</t>
+  </si>
+  <si>
+    <t>leein3296@naver.com</t>
+  </si>
+  <si>
     <t>gim0615@naver.com</t>
   </si>
   <si>
+    <t>gim0617@naver.com</t>
+  </si>
+  <si>
+    <t>gim0618@naver.com</t>
+  </si>
+  <si>
     <t>kime2714@naver.com</t>
   </si>
   <si>
+    <t>kime2716@naver.com</t>
+  </si>
+  <si>
+    <t>kime2717@naver.com</t>
+  </si>
+  <si>
     <t>jangnurijang@hanmail.net</t>
   </si>
   <si>
     <t>ska97105@naver.com</t>
   </si>
   <si>
+    <t>ska97107@naver.com</t>
+  </si>
+  <si>
+    <t>ska97108@naver.com</t>
+  </si>
+  <si>
     <t>tls7415@naver.com</t>
   </si>
   <si>
+    <t>tls7417@naver.com</t>
+  </si>
+  <si>
+    <t>tls7418@naver.com</t>
+  </si>
+  <si>
     <t>7dmsdms7@daum.net</t>
   </si>
   <si>
+    <t>7dmsdms9@daum.net</t>
+  </si>
+  <si>
+    <t>7dmsdms10@daum.net</t>
+  </si>
+  <si>
     <t>bell1995@daum.net</t>
   </si>
   <si>
+    <t>bell1997@daum.net</t>
+  </si>
+  <si>
+    <t>bell1998@daum.net</t>
+  </si>
+  <si>
     <t>yja0203@naver.com</t>
   </si>
   <si>
+    <t>yja0205@naver.com</t>
+  </si>
+  <si>
+    <t>yja0206@naver.com</t>
+  </si>
+  <si>
     <t>8840286@naver.com</t>
   </si>
   <si>
@@ -382,99 +862,273 @@
     <t>hoif114@naver.com</t>
   </si>
   <si>
+    <t>hoif116@naver.com</t>
+  </si>
+  <si>
+    <t>hoif117@naver.com</t>
+  </si>
+  <si>
     <t>hbongm2@naver.com</t>
   </si>
   <si>
+    <t>hbongm4@naver.com</t>
+  </si>
+  <si>
+    <t>hbongm5@naver.com</t>
+  </si>
+  <si>
     <t>apricot176@gmail.com</t>
   </si>
   <si>
+    <t>apricot178@gmail.com</t>
+  </si>
+  <si>
+    <t>apricot179@gmail.com</t>
+  </si>
+  <si>
     <t>soojin9962@naver.com</t>
   </si>
   <si>
+    <t>soojin9964@naver.com</t>
+  </si>
+  <si>
+    <t>soojin9965@naver.com</t>
+  </si>
+  <si>
     <t>junk1006@naver.com</t>
   </si>
   <si>
+    <t>junk1008@naver.com</t>
+  </si>
+  <si>
+    <t>junk1009@naver.com</t>
+  </si>
+  <si>
     <t>sunnypcj@hanmail.net</t>
   </si>
   <si>
     <t>tnqls8645@naver.com</t>
   </si>
   <si>
+    <t>tnqls8647@naver.com</t>
+  </si>
+  <si>
+    <t>tnqls8648@naver.com</t>
+  </si>
+  <si>
     <t>super7643@naver.com</t>
   </si>
   <si>
+    <t>super7645@naver.com</t>
+  </si>
+  <si>
+    <t>super7646@naver.com</t>
+  </si>
+  <si>
     <t>sho8o@naver.com</t>
   </si>
   <si>
+    <t>sho10o@naver.com</t>
+  </si>
+  <si>
+    <t>sho11o@naver.com</t>
+  </si>
+  <si>
     <t>alswl452@nate.com</t>
   </si>
   <si>
+    <t>alswl454@nate.com</t>
+  </si>
+  <si>
+    <t>alswl455@nate.com</t>
+  </si>
+  <si>
     <t>yujin3384@naver.com</t>
   </si>
   <si>
+    <t>yujin3386@naver.com</t>
+  </si>
+  <si>
+    <t>yujin3387@naver.com</t>
+  </si>
+  <si>
     <t>tjszk20@naver.com</t>
   </si>
   <si>
+    <t>tjszk22@naver.com</t>
+  </si>
+  <si>
+    <t>tjszk23@naver.com</t>
+  </si>
+  <si>
     <t>mssongn@naver.com</t>
   </si>
   <si>
     <t>tkdals2889@gmail.com</t>
   </si>
   <si>
+    <t>tkdals2891@gmail.com</t>
+  </si>
+  <si>
+    <t>tkdals2892@gmail.com</t>
+  </si>
+  <si>
     <t>hsy1754@hanmail.net</t>
   </si>
   <si>
+    <t>hsy1756@hanmail.net</t>
+  </si>
+  <si>
+    <t>hsy1757@hanmail.net</t>
+  </si>
+  <si>
     <t>duswjd0319@naver.com</t>
   </si>
   <si>
+    <t>duswjd0321@naver.com</t>
+  </si>
+  <si>
+    <t>duswjd0322@naver.com</t>
+  </si>
+  <si>
     <t>hangyal326@naver.com</t>
   </si>
   <si>
+    <t>hangyal328@naver.com</t>
+  </si>
+  <si>
+    <t>hangyal329@naver.com</t>
+  </si>
+  <si>
     <t>wlals054@naver.com</t>
   </si>
   <si>
+    <t>wlals056@naver.com</t>
+  </si>
+  <si>
+    <t>wlals057@naver.com</t>
+  </si>
+  <si>
     <t>xogml3927@naver.com</t>
   </si>
   <si>
+    <t>xogml3929@naver.com</t>
+  </si>
+  <si>
+    <t>xogml3930@naver.com</t>
+  </si>
+  <si>
     <t>aszx8520@hanmail.net</t>
   </si>
   <si>
+    <t>aszx8522@hanmail.net</t>
+  </si>
+  <si>
+    <t>aszx8523@hanmail.net</t>
+  </si>
+  <si>
     <t>ccc@naver.com</t>
   </si>
   <si>
     <t>yjw3096@naver.com</t>
   </si>
   <si>
+    <t>yjw3098@naver.com</t>
+  </si>
+  <si>
+    <t>yjw3099@naver.com</t>
+  </si>
+  <si>
     <t>hyun02916@naver.com</t>
   </si>
   <si>
+    <t>hyun02918@naver.com</t>
+  </si>
+  <si>
+    <t>hyun02919@naver.com</t>
+  </si>
+  <si>
     <t>heeyeon12307@gmail.net</t>
   </si>
   <si>
+    <t>heeyeon12309@gmail.net</t>
+  </si>
+  <si>
+    <t>heeyeon12310@gmail.net</t>
+  </si>
+  <si>
     <t>sunog12@naver.com</t>
   </si>
   <si>
+    <t>sunog14@naver.com</t>
+  </si>
+  <si>
+    <t>sunog15@naver.com</t>
+  </si>
+  <si>
     <t>landy35@naver.com</t>
   </si>
   <si>
+    <t>landy37@naver.com</t>
+  </si>
+  <si>
+    <t>landy38@naver.com</t>
+  </si>
+  <si>
     <t>minkim0427@naver.com</t>
   </si>
   <si>
+    <t>minkim0429@naver.com</t>
+  </si>
+  <si>
+    <t>minkim0430@naver.com</t>
+  </si>
+  <si>
     <t>joshuak14@hanmail.net</t>
   </si>
   <si>
+    <t>joshuak16@hanmail.net</t>
+  </si>
+  <si>
+    <t>joshuak17@hanmail.net</t>
+  </si>
+  <si>
     <t>betop2015@naver.com</t>
   </si>
   <si>
+    <t>betop2017@naver.com</t>
+  </si>
+  <si>
+    <t>betop2018@naver.com</t>
+  </si>
+  <si>
     <t>gu212323@naver.com</t>
   </si>
   <si>
+    <t>gu212325@naver.com</t>
+  </si>
+  <si>
+    <t>gu212326@naver.com</t>
+  </si>
+  <si>
     <t>hae_0419@naver.com</t>
   </si>
   <si>
+    <t>hae_0421@naver.com</t>
+  </si>
+  <si>
+    <t>hae_0422@naver.com</t>
+  </si>
+  <si>
     <t>les9959@naver.com</t>
   </si>
   <si>
+    <t>les9961@naver.com</t>
+  </si>
+  <si>
+    <t>les9962@naver.com</t>
+  </si>
+  <si>
     <t>ruddhldls@naver.com</t>
   </si>
   <si>
@@ -484,9 +1138,21 @@
     <t>rkdms9612@naver.com</t>
   </si>
   <si>
+    <t>rkdms9614@naver.com</t>
+  </si>
+  <si>
+    <t>rkdms9615@naver.com</t>
+  </si>
+  <si>
     <t>cycho2454@naver.com</t>
   </si>
   <si>
+    <t>cycho2456@naver.com</t>
+  </si>
+  <si>
+    <t>cycho2457@naver.com</t>
+  </si>
+  <si>
     <t>curons@naver.com</t>
   </si>
   <si>
@@ -496,48 +1162,132 @@
     <t>msh0622@naver.com</t>
   </si>
   <si>
+    <t>msh0624@naver.com</t>
+  </si>
+  <si>
+    <t>msh0625@naver.com</t>
+  </si>
+  <si>
     <t>kyj6423_@naver.com</t>
   </si>
   <si>
+    <t>kyj6425_@naver.com</t>
+  </si>
+  <si>
+    <t>kyj6426_@naver.com</t>
+  </si>
+  <si>
     <t>fkvmzktm@naver.com</t>
   </si>
   <si>
     <t>psi9553@naver.com</t>
   </si>
   <si>
+    <t>psi9555@naver.com</t>
+  </si>
+  <si>
+    <t>psi9556@naver.com</t>
+  </si>
+  <si>
     <t>2joyslee@naver.com</t>
   </si>
   <si>
+    <t>4joyslee@naver.com</t>
+  </si>
+  <si>
+    <t>5joyslee@naver.com</t>
+  </si>
+  <si>
     <t>tlgus0705@naver.com</t>
   </si>
   <si>
+    <t>tlgus0707@naver.com</t>
+  </si>
+  <si>
+    <t>tlgus0708@naver.com</t>
+  </si>
+  <si>
     <t>dkdl7289@naver.com</t>
   </si>
   <si>
+    <t>dkdl7291@naver.com</t>
+  </si>
+  <si>
+    <t>dkdl7292@naver.com</t>
+  </si>
+  <si>
     <t>gusqls5073@naver.com</t>
   </si>
   <si>
+    <t>gusqls5075@naver.com</t>
+  </si>
+  <si>
+    <t>gusqls5076@naver.com</t>
+  </si>
+  <si>
     <t>7jumpstart@gmail.com</t>
   </si>
   <si>
+    <t>9jumpstart@gmail.com</t>
+  </si>
+  <si>
+    <t>10jumpstart@gmail.com</t>
+  </si>
+  <si>
     <t>kimjinsil3@naver.com</t>
   </si>
   <si>
+    <t>kimjinsil5@naver.com</t>
+  </si>
+  <si>
+    <t>kimjinsil6@naver.com</t>
+  </si>
+  <si>
     <t>skfmeldrj12@naver.com</t>
   </si>
   <si>
+    <t>skfmeldrj14@naver.com</t>
+  </si>
+  <si>
+    <t>skfmeldrj15@naver.com</t>
+  </si>
+  <si>
     <t>dmswls9346@naver.com</t>
   </si>
   <si>
+    <t>dmswls9348@naver.com</t>
+  </si>
+  <si>
+    <t>dmswls9349@naver.com</t>
+  </si>
+  <si>
     <t>njy4111@naver.com</t>
   </si>
   <si>
+    <t>njy4113@naver.com</t>
+  </si>
+  <si>
+    <t>njy4114@naver.com</t>
+  </si>
+  <si>
     <t>chlwd2@naver.com</t>
   </si>
   <si>
+    <t>chlwd4@naver.com</t>
+  </si>
+  <si>
+    <t>chlwd5@naver.com</t>
+  </si>
+  <si>
     <t>sei02026@naver.com</t>
   </si>
   <si>
+    <t>sei02028@naver.com</t>
+  </si>
+  <si>
+    <t>sei02029@naver.com</t>
+  </si>
+  <si>
     <t>heelight@naver.com</t>
   </si>
   <si>
@@ -550,102 +1300,264 @@
     <t>bti6623@nate.com</t>
   </si>
   <si>
+    <t>bti6625@nate.com</t>
+  </si>
+  <si>
+    <t>bti6626@nate.com</t>
+  </si>
+  <si>
     <t>zxcvb933@naver.com</t>
   </si>
   <si>
+    <t>zxcvb935@naver.com</t>
+  </si>
+  <si>
+    <t>zxcvb936@naver.com</t>
+  </si>
+  <si>
     <t>qdw2016@naver.com</t>
   </si>
   <si>
+    <t>qdw2018@naver.com</t>
+  </si>
+  <si>
+    <t>qdw2019@naver.com</t>
+  </si>
+  <si>
     <t>rnjsgmldus1@naver.com</t>
   </si>
   <si>
+    <t>rnjsgmldus3@naver.com</t>
+  </si>
+  <si>
+    <t>rnjsgmldus4@naver.com</t>
+  </si>
+  <si>
     <t>uk4420@naver.com</t>
   </si>
   <si>
+    <t>uk4422@naver.com</t>
+  </si>
+  <si>
+    <t>uk4423@naver.com</t>
+  </si>
+  <si>
     <t>usobay@naver.com</t>
   </si>
   <si>
     <t>rkarbf13@naver.com</t>
   </si>
   <si>
+    <t>rkarbf15@naver.com</t>
+  </si>
+  <si>
+    <t>rkarbf16@naver.com</t>
+  </si>
+  <si>
     <t>huko1234@gmail.com</t>
   </si>
   <si>
+    <t>huko1236@gmail.com</t>
+  </si>
+  <si>
+    <t>huko1237@gmail.com</t>
+  </si>
+  <si>
     <t>kimsungdo123@naver.com</t>
   </si>
   <si>
+    <t>kimsungdo125@naver.com</t>
+  </si>
+  <si>
+    <t>kimsungdo126@naver.com</t>
+  </si>
+  <si>
     <t>wnsdud4406@naver.com</t>
   </si>
   <si>
+    <t>wnsdud4408@naver.com</t>
+  </si>
+  <si>
+    <t>wnsdud4409@naver.com</t>
+  </si>
+  <si>
     <t>idea_hb@naver.com</t>
   </si>
   <si>
     <t>sonyeun96@hanmail.net</t>
   </si>
   <si>
+    <t>sonyeun98@hanmail.net</t>
+  </si>
+  <si>
+    <t>sonyeun99@hanmail.net</t>
+  </si>
+  <si>
     <t>dbstjq91@gmail.com</t>
   </si>
   <si>
+    <t>dbstjq93@gmail.com</t>
+  </si>
+  <si>
+    <t>dbstjq94@gmail.com</t>
+  </si>
+  <si>
     <t>stdrive@naver.com</t>
   </si>
   <si>
     <t>parkjc1111@naver.com</t>
   </si>
   <si>
+    <t>parkjc1113@naver.com</t>
+  </si>
+  <si>
+    <t>parkjc1114@naver.com</t>
+  </si>
+  <si>
     <t>jae6120@naver.com</t>
   </si>
   <si>
+    <t>jae6122@naver.com</t>
+  </si>
+  <si>
+    <t>jae6123@naver.com</t>
+  </si>
+  <si>
     <t>ktthee@naver.com</t>
   </si>
   <si>
     <t>tkddlf323@hanmail.net</t>
   </si>
   <si>
+    <t>tkddlf325@hanmail.net</t>
+  </si>
+  <si>
+    <t>tkddlf326@hanmail.net</t>
+  </si>
+  <si>
     <t>jg0428.lim@gmail.com</t>
   </si>
   <si>
+    <t>jg0430.lim@gmail.com</t>
+  </si>
+  <si>
+    <t>jg0431.lim@gmail.com</t>
+  </si>
+  <si>
     <t>hjp9183@naver.com</t>
   </si>
   <si>
+    <t>hjp9185@naver.com</t>
+  </si>
+  <si>
+    <t>hjp9186@naver.com</t>
+  </si>
+  <si>
     <t>yoona2222@hanmail.net</t>
   </si>
   <si>
+    <t>yoona2224@hanmail.net</t>
+  </si>
+  <si>
+    <t>yoona2225@hanmail.net</t>
+  </si>
+  <si>
     <t>com6640131@naver.com</t>
   </si>
   <si>
+    <t>com6640133@naver.com</t>
+  </si>
+  <si>
+    <t>com6640134@naver.com</t>
+  </si>
+  <si>
     <t>wns5167@naver.com</t>
   </si>
   <si>
+    <t>wns5169@naver.com</t>
+  </si>
+  <si>
+    <t>wns5170@naver.com</t>
+  </si>
+  <si>
     <t>kevin4475@naver.com</t>
   </si>
   <si>
+    <t>kevin4477@naver.com</t>
+  </si>
+  <si>
+    <t>kevin4478@naver.com</t>
+  </si>
+  <si>
     <t>thswndhkd22@naver.com</t>
   </si>
   <si>
+    <t>thswndhkd24@naver.com</t>
+  </si>
+  <si>
+    <t>thswndhkd25@naver.com</t>
+  </si>
+  <si>
     <t>minho2230@naver.com</t>
   </si>
   <si>
+    <t>minho2232@naver.com</t>
+  </si>
+  <si>
+    <t>minho2233@naver.com</t>
+  </si>
+  <si>
     <t>theking2983@gmail.com</t>
   </si>
   <si>
+    <t>theking2985@gmail.com</t>
+  </si>
+  <si>
+    <t>theking2986@gmail.com</t>
+  </si>
+  <si>
     <t>cillic@hanmail.net</t>
   </si>
   <si>
     <t>dear0724@naver.com</t>
   </si>
   <si>
+    <t>dear0726@naver.com</t>
+  </si>
+  <si>
+    <t>dear0727@naver.com</t>
+  </si>
+  <si>
     <t>taengoole@naver.com</t>
   </si>
   <si>
     <t>anminyoung77@gmail.com</t>
   </si>
   <si>
+    <t>anminyoung79@gmail.com</t>
+  </si>
+  <si>
+    <t>anminyoung80@gmail.com</t>
+  </si>
+  <si>
     <t>mmjlee314@naver.com</t>
   </si>
   <si>
+    <t>mmjlee316@naver.com</t>
+  </si>
+  <si>
+    <t>mmjlee317@naver.com</t>
+  </si>
+  <si>
     <t>2arm21c@naver.com</t>
   </si>
   <si>
+    <t>2arm23c@naver.com</t>
+  </si>
+  <si>
+    <t>2arm24c@naver.com</t>
+  </si>
+  <si>
     <t>rkdrmsdka@naver.com</t>
   </si>
   <si>
@@ -655,22 +1567,145 @@
     <t>kej4115@naver.com</t>
   </si>
   <si>
+    <t>kej4118@naver.com</t>
+  </si>
+  <si>
     <t>kimmini10@naver.com</t>
   </si>
   <si>
+    <t>kimmini12@naver.com</t>
+  </si>
+  <si>
+    <t>kimmini13@naver.com</t>
+  </si>
+  <si>
     <t>sb03147@naver.com</t>
   </si>
   <si>
+    <t>sb03149@naver.com</t>
+  </si>
+  <si>
+    <t>sb03150@naver.com</t>
+  </si>
+  <si>
     <t>jun4250@naver.com</t>
   </si>
   <si>
+    <t>jun4252@naver.com</t>
+  </si>
+  <si>
+    <t>jun4253@naver.com</t>
+  </si>
+  <si>
     <t>daeun0707@naver.com</t>
   </si>
   <si>
+    <t>daeun0709@naver.com</t>
+  </si>
+  <si>
+    <t>daeun0710@naver.com</t>
+  </si>
+  <si>
     <t>jjunpopo@nate.com</t>
   </si>
   <si>
     <t>gambler7712@naver.com</t>
+  </si>
+  <si>
+    <t>gambler7714@naver.com</t>
+  </si>
+  <si>
+    <t>gambler7715@naver.com</t>
+  </si>
+  <si>
+    <t>gomme9396@naver.com</t>
+  </si>
+  <si>
+    <t>gomme9398@naver.com</t>
+  </si>
+  <si>
+    <t>gomme9399@naver.com</t>
+  </si>
+  <si>
+    <t>yeye2918@naver.com</t>
+  </si>
+  <si>
+    <t>yeye2920@naver.com</t>
+  </si>
+  <si>
+    <t>yeye2921@naver.com</t>
+  </si>
+  <si>
+    <t>sks4315@naver.com</t>
+  </si>
+  <si>
+    <t>sks4317@naver.com</t>
+  </si>
+  <si>
+    <t>sks4318@naver.com</t>
+  </si>
+  <si>
+    <t>bnm8280@gmail.com</t>
+  </si>
+  <si>
+    <t>bnm8282@gmail.com</t>
+  </si>
+  <si>
+    <t>bnm8283@gmail.com</t>
+  </si>
+  <si>
+    <t>jinhyuk9123@gmail.com</t>
+  </si>
+  <si>
+    <t>Jinhyuk9123@gmail.com</t>
+  </si>
+  <si>
+    <t>p9346420@empas.com</t>
+  </si>
+  <si>
+    <t>p9346422@empas.com</t>
+  </si>
+  <si>
+    <t>p9346423@empas.com</t>
+  </si>
+  <si>
+    <t>khsu777@naver.com</t>
+  </si>
+  <si>
+    <t>khsu779@naver.com</t>
+  </si>
+  <si>
+    <t>khsu780@naver.com</t>
+  </si>
+  <si>
+    <t>baec12@hanmail.net</t>
+  </si>
+  <si>
+    <t>baec14@hanmail.net</t>
+  </si>
+  <si>
+    <t>baec15@hanmail.net</t>
+  </si>
+  <si>
+    <t>ancsl@naver.com</t>
+  </si>
+  <si>
+    <t>duswjs98@hanmail.net</t>
+  </si>
+  <si>
+    <t>duswjs100@hanmail.net</t>
+  </si>
+  <si>
+    <t>duswjs101@hanmail.net</t>
+  </si>
+  <si>
+    <t>djaakgla11@naver.com</t>
+  </si>
+  <si>
+    <t>djaakgla13@naver.com</t>
+  </si>
+  <si>
+    <t>djaakgla14@naver.com</t>
   </si>
 </sst>
 </file>
@@ -1603,13 +2638,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C216"/>
+  <dimension ref="A1:E228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1619,2370 +2654,3870 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="C39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="C40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="C41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="C44" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="C45" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="C46" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="C47" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="C48" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="C49" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="C50" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s">
+        <v>111</v>
+      </c>
+      <c r="E50" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="C51" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>114</v>
+      </c>
+      <c r="E51" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="C52" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s">
+        <v>117</v>
+      </c>
+      <c r="E52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="C53" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="C54" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>123</v>
+      </c>
+      <c r="E54" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="C55" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s">
+        <v>126</v>
+      </c>
+      <c r="E55" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="C56" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D56" t="s">
+        <v>128</v>
+      </c>
+      <c r="E56" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C57" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D57" t="s">
+        <v>130</v>
+      </c>
+      <c r="E57" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="C58" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s">
+        <v>133</v>
+      </c>
+      <c r="E58" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="C59" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>136</v>
+      </c>
+      <c r="E59" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="C60" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>138</v>
+      </c>
+      <c r="E60" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="C61" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>140</v>
+      </c>
+      <c r="E61" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="C62" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D62" t="s">
+        <v>143</v>
+      </c>
+      <c r="E62" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="C63" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>146</v>
+      </c>
+      <c r="E63" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="C64" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D64" t="s">
+        <v>149</v>
+      </c>
+      <c r="E64" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="C65" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s">
+        <v>152</v>
+      </c>
+      <c r="E65" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="C66" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s">
+        <v>155</v>
+      </c>
+      <c r="E66" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>157</v>
       </c>
       <c r="C67" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>158</v>
+      </c>
+      <c r="E67" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="C68" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>161</v>
+      </c>
+      <c r="E68" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>163</v>
       </c>
       <c r="C69" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s">
+        <v>163</v>
+      </c>
+      <c r="E69" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="C70" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D70" t="s">
+        <v>165</v>
+      </c>
+      <c r="E70" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="C71" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D71" t="s">
+        <v>168</v>
+      </c>
+      <c r="E71" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="C72" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D72" t="s">
+        <v>171</v>
+      </c>
+      <c r="E72" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>173</v>
       </c>
       <c r="C73" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D73" t="s">
+        <v>174</v>
+      </c>
+      <c r="E73" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="C74" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D74" t="s">
+        <v>176</v>
+      </c>
+      <c r="E74" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="C75" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>178</v>
+      </c>
+      <c r="E75" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="C76" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D76" t="s">
+        <v>180</v>
+      </c>
+      <c r="E76" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="C77" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D77" t="s">
+        <v>182</v>
+      </c>
+      <c r="E77" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="C78" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D78" t="s">
+        <v>185</v>
+      </c>
+      <c r="E78" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="C79" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D79" t="s">
+        <v>187</v>
+      </c>
+      <c r="E79" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="C80" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D80" t="s">
+        <v>189</v>
+      </c>
+      <c r="E80" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>191</v>
       </c>
       <c r="C81" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D81" t="s">
+        <v>192</v>
+      </c>
+      <c r="E81" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>194</v>
       </c>
       <c r="C82" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D82" t="s">
+        <v>195</v>
+      </c>
+      <c r="E82" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>197</v>
       </c>
       <c r="C83" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D83" t="s">
+        <v>198</v>
+      </c>
+      <c r="E83" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>200</v>
       </c>
       <c r="C84" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D84" t="s">
+        <v>200</v>
+      </c>
+      <c r="E84" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>201</v>
       </c>
       <c r="C85" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D85" t="s">
+        <v>202</v>
+      </c>
+      <c r="E85" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>204</v>
       </c>
       <c r="C86" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D86" t="s">
+        <v>205</v>
+      </c>
+      <c r="E86" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>207</v>
       </c>
       <c r="C87" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D87" t="s">
+        <v>208</v>
+      </c>
+      <c r="E87" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="C88" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D88" t="s">
+        <v>211</v>
+      </c>
+      <c r="E88" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="C89" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D89" t="s">
+        <v>213</v>
+      </c>
+      <c r="E89" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>214</v>
       </c>
       <c r="C90" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D90" t="s">
+        <v>215</v>
+      </c>
+      <c r="E90" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>217</v>
       </c>
       <c r="C91" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D91" t="s">
+        <v>217</v>
+      </c>
+      <c r="E91" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="C92" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D92" t="s">
+        <v>219</v>
+      </c>
+      <c r="E92" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>95</v>
+        <v>221</v>
       </c>
       <c r="C93" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D93" t="s">
+        <v>222</v>
+      </c>
+      <c r="E93" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>96</v>
+        <v>224</v>
       </c>
       <c r="C94" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D94" t="s">
+        <v>225</v>
+      </c>
+      <c r="E94" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>97</v>
+        <v>227</v>
       </c>
       <c r="C95" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D95" t="s">
+        <v>228</v>
+      </c>
+      <c r="E95" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c r="C96" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D96" t="s">
+        <v>231</v>
+      </c>
+      <c r="E96" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>99</v>
+        <v>233</v>
       </c>
       <c r="C97" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D97" t="s">
+        <v>233</v>
+      </c>
+      <c r="E97" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="C98" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D98" t="s">
+        <v>235</v>
+      </c>
+      <c r="E98" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>101</v>
+        <v>237</v>
       </c>
       <c r="C99" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D99" t="s">
+        <v>237</v>
+      </c>
+      <c r="E99" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>238</v>
       </c>
       <c r="C100" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D100" t="s">
+        <v>239</v>
+      </c>
+      <c r="E100" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>103</v>
+        <v>241</v>
       </c>
       <c r="C101" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D101" t="s">
+        <v>242</v>
+      </c>
+      <c r="E101" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>104</v>
+        <v>244</v>
       </c>
       <c r="C102" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D102" t="s">
+        <v>245</v>
+      </c>
+      <c r="E102" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>105</v>
+        <v>247</v>
       </c>
       <c r="C103" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D103" t="s">
+        <v>248</v>
+      </c>
+      <c r="E103" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="C104" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D104" t="s">
+        <v>251</v>
+      </c>
+      <c r="E104" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>107</v>
+        <v>253</v>
       </c>
       <c r="C105" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D105" t="s">
+        <v>254</v>
+      </c>
+      <c r="E105" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>108</v>
+        <v>256</v>
       </c>
       <c r="C106" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D106" t="s">
+        <v>257</v>
+      </c>
+      <c r="E106" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>109</v>
+        <v>259</v>
       </c>
       <c r="C107" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D107" t="s">
+        <v>259</v>
+      </c>
+      <c r="E107" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="C108" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D108" t="s">
+        <v>261</v>
+      </c>
+      <c r="E108" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>111</v>
+        <v>263</v>
       </c>
       <c r="C109" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D109" t="s">
+        <v>264</v>
+      </c>
+      <c r="E109" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="C110" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D110" t="s">
+        <v>267</v>
+      </c>
+      <c r="E110" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>113</v>
+        <v>269</v>
       </c>
       <c r="C111" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D111" t="s">
+        <v>270</v>
+      </c>
+      <c r="E111" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>114</v>
+        <v>272</v>
       </c>
       <c r="C112" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D112" t="s">
+        <v>273</v>
+      </c>
+      <c r="E112" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>115</v>
+        <v>275</v>
       </c>
       <c r="C113" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D113" t="s">
+        <v>275</v>
+      </c>
+      <c r="E113" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>116</v>
+        <v>276</v>
       </c>
       <c r="C114" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D114" t="s">
+        <v>276</v>
+      </c>
+      <c r="E114" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>117</v>
+        <v>277</v>
       </c>
       <c r="C115" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D115" t="s">
+        <v>277</v>
+      </c>
+      <c r="E115" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>118</v>
+        <v>278</v>
       </c>
       <c r="C116" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D116" t="s">
+        <v>278</v>
+      </c>
+      <c r="E116" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>119</v>
+        <v>279</v>
       </c>
       <c r="C117" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D117" t="s">
+        <v>279</v>
+      </c>
+      <c r="E117" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="C118" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D118" t="s">
+        <v>280</v>
+      </c>
+      <c r="E118" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>121</v>
+        <v>281</v>
       </c>
       <c r="C119" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D119" t="s">
+        <v>282</v>
+      </c>
+      <c r="E119" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>122</v>
+        <v>284</v>
       </c>
       <c r="C120" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D120" t="s">
+        <v>285</v>
+      </c>
+      <c r="E120" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>123</v>
+        <v>287</v>
       </c>
       <c r="C121" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D121" t="s">
+        <v>288</v>
+      </c>
+      <c r="E121" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>124</v>
+        <v>290</v>
       </c>
       <c r="C122" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D122" t="s">
+        <v>291</v>
+      </c>
+      <c r="E122" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>125</v>
+        <v>293</v>
       </c>
       <c r="C123" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D123" t="s">
+        <v>294</v>
+      </c>
+      <c r="E123" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>126</v>
+        <v>296</v>
       </c>
       <c r="C124" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D124" t="s">
+        <v>296</v>
+      </c>
+      <c r="E124" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>127</v>
+        <v>297</v>
       </c>
       <c r="C125" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D125" t="s">
+        <v>298</v>
+      </c>
+      <c r="E125" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>128</v>
+        <v>300</v>
       </c>
       <c r="C126" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D126" t="s">
+        <v>301</v>
+      </c>
+      <c r="E126" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>129</v>
+        <v>303</v>
       </c>
       <c r="C127" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D127" t="s">
+        <v>304</v>
+      </c>
+      <c r="E127" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>130</v>
+        <v>306</v>
       </c>
       <c r="C128" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D128" t="s">
+        <v>307</v>
+      </c>
+      <c r="E128" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>131</v>
+        <v>309</v>
       </c>
       <c r="C129" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D129" t="s">
+        <v>310</v>
+      </c>
+      <c r="E129" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>132</v>
+        <v>312</v>
       </c>
       <c r="C130" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D130" t="s">
+        <v>313</v>
+      </c>
+      <c r="E130" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>133</v>
+        <v>315</v>
       </c>
       <c r="C131" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D131" t="s">
+        <v>315</v>
+      </c>
+      <c r="E131" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>134</v>
+        <v>316</v>
       </c>
       <c r="C132" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D132" t="s">
+        <v>317</v>
+      </c>
+      <c r="E132" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>135</v>
+        <v>319</v>
       </c>
       <c r="C133" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D133" t="s">
+        <v>320</v>
+      </c>
+      <c r="E133" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>136</v>
+        <v>322</v>
       </c>
       <c r="C134" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D134" t="s">
+        <v>323</v>
+      </c>
+      <c r="E134" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>137</v>
+        <v>325</v>
       </c>
       <c r="C135" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D135" t="s">
+        <v>326</v>
+      </c>
+      <c r="E135" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>138</v>
+        <v>328</v>
       </c>
       <c r="C136" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D136" t="s">
+        <v>329</v>
+      </c>
+      <c r="E136" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>139</v>
+        <v>331</v>
       </c>
       <c r="C137" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D137" t="s">
+        <v>332</v>
+      </c>
+      <c r="E137" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>140</v>
+        <v>334</v>
       </c>
       <c r="C138" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D138" t="s">
+        <v>335</v>
+      </c>
+      <c r="E138" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>141</v>
+        <v>337</v>
       </c>
       <c r="C139" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D139" t="s">
+        <v>337</v>
+      </c>
+      <c r="E139" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>142</v>
+        <v>338</v>
       </c>
       <c r="C140" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D140" t="s">
+        <v>339</v>
+      </c>
+      <c r="E140" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>143</v>
+        <v>341</v>
       </c>
       <c r="C141" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D141" t="s">
+        <v>342</v>
+      </c>
+      <c r="E141" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>144</v>
+        <v>344</v>
       </c>
       <c r="C142" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D142" t="s">
+        <v>345</v>
+      </c>
+      <c r="E142" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>145</v>
+        <v>347</v>
       </c>
       <c r="C143" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D143" t="s">
+        <v>348</v>
+      </c>
+      <c r="E143" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>146</v>
+        <v>350</v>
       </c>
       <c r="C144" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D144" t="s">
+        <v>351</v>
+      </c>
+      <c r="E144" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>147</v>
+        <v>353</v>
       </c>
       <c r="C145" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D145" t="s">
+        <v>354</v>
+      </c>
+      <c r="E145" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>148</v>
+        <v>356</v>
       </c>
       <c r="C146" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D146" t="s">
+        <v>357</v>
+      </c>
+      <c r="E146" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>149</v>
+        <v>359</v>
       </c>
       <c r="C147" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D147" t="s">
+        <v>360</v>
+      </c>
+      <c r="E147" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>150</v>
+        <v>362</v>
       </c>
       <c r="C148" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D148" t="s">
+        <v>363</v>
+      </c>
+      <c r="E148" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>151</v>
+        <v>365</v>
       </c>
       <c r="C149" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D149" t="s">
+        <v>366</v>
+      </c>
+      <c r="E149" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>152</v>
+        <v>368</v>
       </c>
       <c r="C150" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D150" t="s">
+        <v>369</v>
+      </c>
+      <c r="E150" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>153</v>
+        <v>371</v>
       </c>
       <c r="C151" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D151" t="s">
+        <v>371</v>
+      </c>
+      <c r="E151" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>154</v>
+        <v>372</v>
       </c>
       <c r="C152" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D152" t="s">
+        <v>372</v>
+      </c>
+      <c r="E152" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>155</v>
+        <v>373</v>
       </c>
       <c r="C153" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D153" t="s">
+        <v>374</v>
+      </c>
+      <c r="E153" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>156</v>
+        <v>376</v>
       </c>
       <c r="C154" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D154" t="s">
+        <v>377</v>
+      </c>
+      <c r="E154" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>157</v>
+        <v>379</v>
       </c>
       <c r="C155" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D155" t="s">
+        <v>379</v>
+      </c>
+      <c r="E155" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>158</v>
+        <v>380</v>
       </c>
       <c r="C156" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D156" t="s">
+        <v>380</v>
+      </c>
+      <c r="E156" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>159</v>
+        <v>381</v>
       </c>
       <c r="C157" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D157" t="s">
+        <v>382</v>
+      </c>
+      <c r="E157" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>160</v>
+        <v>384</v>
       </c>
       <c r="C158" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D158" t="s">
+        <v>385</v>
+      </c>
+      <c r="E158" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>161</v>
+        <v>387</v>
       </c>
       <c r="C159" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D159" t="s">
+        <v>387</v>
+      </c>
+      <c r="E159" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>162</v>
+        <v>388</v>
       </c>
       <c r="C160" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D160" t="s">
+        <v>389</v>
+      </c>
+      <c r="E160" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>163</v>
+        <v>391</v>
       </c>
       <c r="C161" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D161" t="s">
+        <v>392</v>
+      </c>
+      <c r="E161" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>164</v>
+        <v>394</v>
       </c>
       <c r="C162" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D162" t="s">
+        <v>395</v>
+      </c>
+      <c r="E162" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>165</v>
+        <v>397</v>
       </c>
       <c r="C163" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D163" t="s">
+        <v>398</v>
+      </c>
+      <c r="E163" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>166</v>
+        <v>400</v>
       </c>
       <c r="C164" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D164" t="s">
+        <v>401</v>
+      </c>
+      <c r="E164" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>167</v>
+        <v>403</v>
       </c>
       <c r="C165" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D165" t="s">
+        <v>404</v>
+      </c>
+      <c r="E165" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>168</v>
+        <v>406</v>
       </c>
       <c r="C166" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D166" t="s">
+        <v>407</v>
+      </c>
+      <c r="E166" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>169</v>
+        <v>409</v>
       </c>
       <c r="C167" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D167" t="s">
+        <v>410</v>
+      </c>
+      <c r="E167" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>170</v>
+        <v>412</v>
       </c>
       <c r="C168" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D168" t="s">
+        <v>413</v>
+      </c>
+      <c r="E168" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>171</v>
+        <v>415</v>
       </c>
       <c r="C169" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D169" t="s">
+        <v>416</v>
+      </c>
+      <c r="E169" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>172</v>
+        <v>418</v>
       </c>
       <c r="C170" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D170" t="s">
+        <v>419</v>
+      </c>
+      <c r="E170" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>173</v>
+        <v>421</v>
       </c>
       <c r="C171" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D171" t="s">
+        <v>422</v>
+      </c>
+      <c r="E171" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>174</v>
+        <v>424</v>
       </c>
       <c r="C172" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D172" t="s">
+        <v>424</v>
+      </c>
+      <c r="E172" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>175</v>
+        <v>425</v>
       </c>
       <c r="C173" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D173" t="s">
+        <v>425</v>
+      </c>
+      <c r="E173" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>176</v>
+        <v>426</v>
       </c>
       <c r="C174" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D174" t="s">
+        <v>426</v>
+      </c>
+      <c r="E174" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>177</v>
+        <v>427</v>
       </c>
       <c r="C175" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D175" t="s">
+        <v>428</v>
+      </c>
+      <c r="E175" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>178</v>
+        <v>430</v>
       </c>
       <c r="C176" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D176" t="s">
+        <v>431</v>
+      </c>
+      <c r="E176" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>179</v>
+        <v>433</v>
       </c>
       <c r="C177" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D177" t="s">
+        <v>434</v>
+      </c>
+      <c r="E177" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>180</v>
+        <v>436</v>
       </c>
       <c r="C178" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D178" t="s">
+        <v>437</v>
+      </c>
+      <c r="E178" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>181</v>
+        <v>439</v>
       </c>
       <c r="C179" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D179" t="s">
+        <v>440</v>
+      </c>
+      <c r="E179" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>182</v>
+        <v>442</v>
       </c>
       <c r="C180" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D180" t="s">
+        <v>442</v>
+      </c>
+      <c r="E180" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>183</v>
+        <v>443</v>
       </c>
       <c r="C181" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D181" t="s">
+        <v>444</v>
+      </c>
+      <c r="E181" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>184</v>
-      </c>
-      <c r="C182" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
+        <v>446</v>
+      </c>
+      <c r="C182" t="s">
+        <v>6</v>
+      </c>
+      <c r="D182" t="s">
+        <v>447</v>
+      </c>
+      <c r="E182" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>185</v>
-      </c>
-      <c r="C183" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
+        <v>449</v>
+      </c>
+      <c r="C183" t="s">
+        <v>6</v>
+      </c>
+      <c r="D183" t="s">
+        <v>450</v>
+      </c>
+      <c r="E183" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>186</v>
-      </c>
-      <c r="C184" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
+        <v>452</v>
+      </c>
+      <c r="C184" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184" t="s">
+        <v>453</v>
+      </c>
+      <c r="E184" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>187</v>
-      </c>
-      <c r="C185" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
+        <v>455</v>
+      </c>
+      <c r="C185" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185" t="s">
+        <v>455</v>
+      </c>
+      <c r="E185" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>188</v>
-      </c>
-      <c r="C186" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
+        <v>456</v>
+      </c>
+      <c r="C186" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" t="s">
+        <v>457</v>
+      </c>
+      <c r="E186" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>189</v>
-      </c>
-      <c r="C187" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
+        <v>459</v>
+      </c>
+      <c r="C187" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187" t="s">
+        <v>460</v>
+      </c>
+      <c r="E187" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>190</v>
-      </c>
-      <c r="C188" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
+        <v>462</v>
+      </c>
+      <c r="C188" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188" t="s">
+        <v>462</v>
+      </c>
+      <c r="E188" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>191</v>
-      </c>
-      <c r="C189" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
+        <v>463</v>
+      </c>
+      <c r="C189" t="s">
+        <v>6</v>
+      </c>
+      <c r="D189" t="s">
+        <v>464</v>
+      </c>
+      <c r="E189" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>192</v>
-      </c>
-      <c r="C190" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
+        <v>466</v>
+      </c>
+      <c r="C190" t="s">
+        <v>6</v>
+      </c>
+      <c r="D190" t="s">
+        <v>467</v>
+      </c>
+      <c r="E190" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>193</v>
-      </c>
-      <c r="C191" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
+        <v>469</v>
+      </c>
+      <c r="C191" t="s">
+        <v>6</v>
+      </c>
+      <c r="D191" t="s">
+        <v>469</v>
+      </c>
+      <c r="E191" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>194</v>
-      </c>
-      <c r="C192" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
+        <v>470</v>
+      </c>
+      <c r="C192" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192" t="s">
+        <v>471</v>
+      </c>
+      <c r="E192" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>195</v>
-      </c>
-      <c r="C193" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
+        <v>473</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" t="s">
+        <v>474</v>
+      </c>
+      <c r="E193" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>196</v>
-      </c>
-      <c r="C194" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
+        <v>476</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" t="s">
+        <v>477</v>
+      </c>
+      <c r="E194" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>197</v>
-      </c>
-      <c r="C195" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
+        <v>479</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" t="s">
+        <v>480</v>
+      </c>
+      <c r="E195" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>198</v>
-      </c>
-      <c r="C196" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
+        <v>482</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" t="s">
+        <v>483</v>
+      </c>
+      <c r="E196" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>199</v>
-      </c>
-      <c r="C197" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
+        <v>485</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" t="s">
+        <v>486</v>
+      </c>
+      <c r="E197" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>200</v>
-      </c>
-      <c r="C198" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
+        <v>488</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" t="s">
+        <v>489</v>
+      </c>
+      <c r="E198" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>201</v>
-      </c>
-      <c r="C199" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
+        <v>491</v>
+      </c>
+      <c r="C199" t="s">
+        <v>6</v>
+      </c>
+      <c r="D199" t="s">
+        <v>492</v>
+      </c>
+      <c r="E199" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>202</v>
-      </c>
-      <c r="C200" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
+        <v>494</v>
+      </c>
+      <c r="C200" t="s">
+        <v>6</v>
+      </c>
+      <c r="D200" t="s">
+        <v>495</v>
+      </c>
+      <c r="E200" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>203</v>
-      </c>
-      <c r="C201" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
+        <v>497</v>
+      </c>
+      <c r="C201" t="s">
+        <v>6</v>
+      </c>
+      <c r="D201" t="s">
+        <v>498</v>
+      </c>
+      <c r="E201" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>204</v>
-      </c>
-      <c r="C202" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
+        <v>500</v>
+      </c>
+      <c r="C202" t="s">
+        <v>6</v>
+      </c>
+      <c r="D202" t="s">
+        <v>500</v>
+      </c>
+      <c r="E202" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>205</v>
-      </c>
-      <c r="C203" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
+        <v>501</v>
+      </c>
+      <c r="C203" t="s">
+        <v>6</v>
+      </c>
+      <c r="D203" t="s">
+        <v>502</v>
+      </c>
+      <c r="E203" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>206</v>
-      </c>
-      <c r="C204" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
+        <v>504</v>
+      </c>
+      <c r="C204" t="s">
+        <v>6</v>
+      </c>
+      <c r="D204" t="s">
+        <v>504</v>
+      </c>
+      <c r="E204" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>207</v>
-      </c>
-      <c r="C205" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
+        <v>505</v>
+      </c>
+      <c r="C205" t="s">
+        <v>6</v>
+      </c>
+      <c r="D205" t="s">
+        <v>506</v>
+      </c>
+      <c r="E205" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>208</v>
-      </c>
-      <c r="C206" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
+        <v>508</v>
+      </c>
+      <c r="C206" t="s">
+        <v>6</v>
+      </c>
+      <c r="D206" t="s">
+        <v>509</v>
+      </c>
+      <c r="E206" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>209</v>
-      </c>
-      <c r="C207" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
+        <v>511</v>
+      </c>
+      <c r="C207" t="s">
+        <v>6</v>
+      </c>
+      <c r="D207" t="s">
+        <v>512</v>
+      </c>
+      <c r="E207" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>210</v>
-      </c>
-      <c r="C208" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
+        <v>514</v>
+      </c>
+      <c r="C208" t="s">
+        <v>6</v>
+      </c>
+      <c r="D208" t="s">
+        <v>514</v>
+      </c>
+      <c r="E208" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>211</v>
-      </c>
-      <c r="C209" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
+        <v>515</v>
+      </c>
+      <c r="C209" t="s">
+        <v>6</v>
+      </c>
+      <c r="D209" t="s">
+        <v>515</v>
+      </c>
+      <c r="E209" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>212</v>
-      </c>
-      <c r="C210" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
+        <v>516</v>
+      </c>
+      <c r="C210" t="s">
+        <v>6</v>
+      </c>
+      <c r="D210" t="s">
+        <v>162</v>
+      </c>
+      <c r="E210" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>213</v>
-      </c>
-      <c r="C211" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
+        <v>518</v>
+      </c>
+      <c r="C211" t="s">
+        <v>6</v>
+      </c>
+      <c r="D211" t="s">
+        <v>519</v>
+      </c>
+      <c r="E211" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>214</v>
-      </c>
-      <c r="C212" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
+        <v>521</v>
+      </c>
+      <c r="C212" t="s">
+        <v>6</v>
+      </c>
+      <c r="D212" t="s">
+        <v>522</v>
+      </c>
+      <c r="E212" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>215</v>
-      </c>
-      <c r="C213" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
+        <v>524</v>
+      </c>
+      <c r="C213" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213" t="s">
+        <v>525</v>
+      </c>
+      <c r="E213" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>216</v>
-      </c>
-      <c r="C214" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
+        <v>527</v>
+      </c>
+      <c r="C214" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214" t="s">
+        <v>528</v>
+      </c>
+      <c r="E214" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>217</v>
-      </c>
-      <c r="C215" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
+        <v>530</v>
+      </c>
+      <c r="C215" t="s">
+        <v>6</v>
+      </c>
+      <c r="D215" t="s">
+        <v>530</v>
+      </c>
+      <c r="E215" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216" t="s">
+        <v>531</v>
+      </c>
+      <c r="C216" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216" t="s">
+        <v>532</v>
+      </c>
+      <c r="E216" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>534</v>
+      </c>
+      <c r="C217" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217" t="s">
+        <v>535</v>
+      </c>
+      <c r="E217" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>537</v>
+      </c>
+      <c r="C218" t="s">
+        <v>6</v>
+      </c>
+      <c r="D218" t="s">
+        <v>538</v>
+      </c>
+      <c r="E218" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219">
         <v>218</v>
       </c>
-      <c r="C216" t="b">
-        <v>1</v>
+      <c r="B219" t="s">
+        <v>540</v>
+      </c>
+      <c r="C219" t="s">
+        <v>6</v>
+      </c>
+      <c r="D219" t="s">
+        <v>541</v>
+      </c>
+      <c r="E219" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>543</v>
+      </c>
+      <c r="C220" t="s">
+        <v>6</v>
+      </c>
+      <c r="D220" t="s">
+        <v>544</v>
+      </c>
+      <c r="E220" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>546</v>
+      </c>
+      <c r="C221" t="s">
+        <v>6</v>
+      </c>
+      <c r="D221" t="s">
+        <v>546</v>
+      </c>
+      <c r="E221" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>547</v>
+      </c>
+      <c r="C222" t="s">
+        <v>6</v>
+      </c>
+      <c r="D222" t="s">
+        <v>547</v>
+      </c>
+      <c r="E222" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>548</v>
+      </c>
+      <c r="C223" t="s">
+        <v>6</v>
+      </c>
+      <c r="D223" t="s">
+        <v>549</v>
+      </c>
+      <c r="E223" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224">
+        <v>224</v>
+      </c>
+      <c r="B224" t="s">
+        <v>551</v>
+      </c>
+      <c r="C224" t="s">
+        <v>6</v>
+      </c>
+      <c r="D224" t="s">
+        <v>552</v>
+      </c>
+      <c r="E224" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225">
+        <v>225</v>
+      </c>
+      <c r="B225" t="s">
+        <v>554</v>
+      </c>
+      <c r="C225" t="s">
+        <v>6</v>
+      </c>
+      <c r="D225" t="s">
+        <v>555</v>
+      </c>
+      <c r="E225" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226">
+        <v>226</v>
+      </c>
+      <c r="B226" t="s">
+        <v>557</v>
+      </c>
+      <c r="C226" t="s">
+        <v>6</v>
+      </c>
+      <c r="D226" t="s">
+        <v>557</v>
+      </c>
+      <c r="E226" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227">
+        <v>227</v>
+      </c>
+      <c r="B227" t="s">
+        <v>558</v>
+      </c>
+      <c r="C227" t="s">
+        <v>6</v>
+      </c>
+      <c r="D227" t="s">
+        <v>559</v>
+      </c>
+      <c r="E227" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228">
+        <v>228</v>
+      </c>
+      <c r="B228" t="s">
+        <v>561</v>
+      </c>
+      <c r="C228" t="s">
+        <v>6</v>
+      </c>
+      <c r="D228" t="s">
+        <v>562</v>
+      </c>
+      <c r="E228" t="s">
+        <v>563</v>
       </c>
     </row>
   </sheetData>
